--- a/Supplementary/Tables/supplementary table S1.xlsx
+++ b/Supplementary/Tables/supplementary table S1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_GIT_myproject\PlantFUNCO_manuscript\Manuscript\0.Supplementary\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_GIT_myproject\PlantFUNCO_manuscript\Supplementary\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14904" windowHeight="6912"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Arabidopsis_thaliana" sheetId="1" r:id="rId1"/>
@@ -4215,9 +4215,77 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4227,15 +4295,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4293,154 +4352,118 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4452,29 +4475,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -4827,23 +4827,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="204"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="120"/>
       <c r="P1" s="58"/>
       <c r="Q1" s="58"/>
     </row>
@@ -4851,10 +4851,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="162"/>
+      <c r="C2" s="135"/>
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
@@ -4891,13 +4891,13 @@
       <c r="Q2" s="59"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="140" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -4924,20 +4924,20 @@
       <c r="K3" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="158">
+      <c r="L3" s="122">
         <v>42086</v>
       </c>
-      <c r="M3" s="149" t="s">
+      <c r="M3" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="124" t="s">
+      <c r="N3" s="129" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="157"/>
-      <c r="B4" s="153"/>
-      <c r="C4" s="147"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="140"/>
       <c r="D4" s="25" t="s">
         <v>12</v>
       </c>
@@ -4962,14 +4962,14 @@
       <c r="K4" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="159"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="125"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="130"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="157"/>
-      <c r="B5" s="153"/>
-      <c r="C5" s="147"/>
+      <c r="A5" s="138"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="140"/>
       <c r="D5" s="25" t="s">
         <v>13</v>
       </c>
@@ -4994,14 +4994,14 @@
       <c r="K5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="159"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="125"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="130"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="157"/>
-      <c r="B6" s="153"/>
-      <c r="C6" s="147"/>
+      <c r="A6" s="138"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="140"/>
       <c r="D6" s="25" t="s">
         <v>14</v>
       </c>
@@ -5026,14 +5026,14 @@
       <c r="K6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="159"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="125"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="130"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="157"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="147"/>
+      <c r="A7" s="138"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="25" t="s">
         <v>10</v>
       </c>
@@ -5058,14 +5058,14 @@
       <c r="K7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="159"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="125"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="130"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="157"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="147"/>
+      <c r="A8" s="138"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="28" t="s">
         <v>15</v>
       </c>
@@ -5090,14 +5090,14 @@
       <c r="K8" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="160"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="126"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="131"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="157"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="147"/>
+      <c r="A9" s="138"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="140"/>
       <c r="D9" s="31" t="s">
         <v>46</v>
       </c>
@@ -5122,20 +5122,20 @@
       <c r="K9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="158">
+      <c r="L9" s="122">
         <v>44152</v>
       </c>
-      <c r="M9" s="149" t="s">
+      <c r="M9" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="124" t="s">
+      <c r="N9" s="129" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="157"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="147"/>
+      <c r="A10" s="138"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="140"/>
       <c r="D10" s="25" t="s">
         <v>47</v>
       </c>
@@ -5160,14 +5160,14 @@
       <c r="K10" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="159"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="125"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="130"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="157"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="148"/>
+      <c r="A11" s="138"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="141"/>
       <c r="D11" s="28" t="s">
         <v>48</v>
       </c>
@@ -5192,14 +5192,14 @@
       <c r="K11" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="160"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="126"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="131"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="157"/>
-      <c r="B12" s="153"/>
-      <c r="C12" s="146" t="s">
+      <c r="A12" s="138"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="142" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="31" t="s">
@@ -5226,20 +5226,20 @@
       <c r="K12" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="158">
+      <c r="L12" s="122">
         <v>42262</v>
       </c>
-      <c r="M12" s="149" t="s">
+      <c r="M12" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="N12" s="124" t="s">
+      <c r="N12" s="129" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="157"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="148"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="141"/>
       <c r="D13" s="28" t="s">
         <v>62</v>
       </c>
@@ -5264,16 +5264,16 @@
       <c r="K13" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="160"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="126"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="131"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="157"/>
-      <c r="B14" s="152" t="s">
+      <c r="A14" s="138"/>
+      <c r="B14" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="142" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="31" t="s">
@@ -5300,20 +5300,20 @@
       <c r="K14" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="158">
+      <c r="L14" s="122">
         <v>41585</v>
       </c>
-      <c r="M14" s="149" t="s">
+      <c r="M14" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="N14" s="124" t="s">
+      <c r="N14" s="129" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="157"/>
-      <c r="B15" s="153"/>
-      <c r="C15" s="147"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="140"/>
       <c r="D15" s="25" t="s">
         <v>75</v>
       </c>
@@ -5338,14 +5338,14 @@
       <c r="K15" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="L15" s="159"/>
-      <c r="M15" s="150"/>
-      <c r="N15" s="125"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="130"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="157"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="147"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="25" t="s">
         <v>75</v>
       </c>
@@ -5370,14 +5370,14 @@
       <c r="K16" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="L16" s="159"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="125"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="130"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="157"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="147"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="28" t="s">
         <v>76</v>
       </c>
@@ -5402,14 +5402,14 @@
       <c r="K17" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="L17" s="160"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="126"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="131"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="157"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="147"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="140"/>
       <c r="D18" s="31" t="s">
         <v>90</v>
       </c>
@@ -5434,20 +5434,20 @@
       <c r="K18" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="L18" s="158">
+      <c r="L18" s="122">
         <v>42838</v>
       </c>
-      <c r="M18" s="149" t="s">
+      <c r="M18" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="N18" s="124" t="s">
+      <c r="N18" s="129" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="157"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="147"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="140"/>
       <c r="D19" s="25" t="s">
         <v>101</v>
       </c>
@@ -5472,14 +5472,14 @@
       <c r="K19" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L19" s="159"/>
-      <c r="M19" s="150"/>
-      <c r="N19" s="125"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="130"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="157"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="147"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="140"/>
       <c r="D20" s="25" t="s">
         <v>92</v>
       </c>
@@ -5504,14 +5504,14 @@
       <c r="K20" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L20" s="159"/>
-      <c r="M20" s="150"/>
-      <c r="N20" s="125"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="130"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="157"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="147"/>
+      <c r="A21" s="138"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="140"/>
       <c r="D21" s="25" t="s">
         <v>104</v>
       </c>
@@ -5536,14 +5536,14 @@
       <c r="K21" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L21" s="159"/>
-      <c r="M21" s="150"/>
-      <c r="N21" s="125"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="130"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="157"/>
-      <c r="B22" s="153"/>
-      <c r="C22" s="147"/>
+      <c r="A22" s="138"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="140"/>
       <c r="D22" s="25" t="s">
         <v>89</v>
       </c>
@@ -5568,14 +5568,14 @@
       <c r="K22" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L22" s="159"/>
-      <c r="M22" s="150"/>
-      <c r="N22" s="125"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="130"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="157"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="147"/>
+      <c r="A23" s="138"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="140"/>
       <c r="D23" s="25" t="s">
         <v>112</v>
       </c>
@@ -5600,14 +5600,14 @@
       <c r="K23" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L23" s="159"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="125"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="130"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="157"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="147"/>
+      <c r="A24" s="138"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="140"/>
       <c r="D24" s="25" t="s">
         <v>91</v>
       </c>
@@ -5632,14 +5632,14 @@
       <c r="K24" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L24" s="159"/>
-      <c r="M24" s="150"/>
-      <c r="N24" s="125"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="130"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="157"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="148"/>
+      <c r="A25" s="138"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="141"/>
       <c r="D25" s="28" t="s">
         <v>108</v>
       </c>
@@ -5664,14 +5664,14 @@
       <c r="K25" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="L25" s="160"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="126"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="131"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="157"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="146" t="s">
+      <c r="A26" s="138"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="142" t="s">
         <v>99</v>
       </c>
       <c r="D26" s="31" t="s">
@@ -5698,20 +5698,20 @@
       <c r="K26" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="L26" s="158">
+      <c r="L26" s="122">
         <v>42838</v>
       </c>
-      <c r="M26" s="149" t="s">
+      <c r="M26" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="N26" s="124" t="s">
+      <c r="N26" s="129" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="157"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="147"/>
+      <c r="A27" s="138"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="140"/>
       <c r="D27" s="25" t="s">
         <v>101</v>
       </c>
@@ -5736,14 +5736,14 @@
       <c r="K27" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L27" s="159"/>
-      <c r="M27" s="150"/>
-      <c r="N27" s="125"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="130"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="157"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="147"/>
+      <c r="A28" s="138"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="140"/>
       <c r="D28" s="40" t="s">
         <v>106</v>
       </c>
@@ -5768,14 +5768,14 @@
       <c r="K28" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L28" s="159"/>
-      <c r="M28" s="150"/>
-      <c r="N28" s="125"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="130"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="157"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="147"/>
+      <c r="A29" s="138"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="140"/>
       <c r="D29" s="40" t="s">
         <v>104</v>
       </c>
@@ -5800,14 +5800,14 @@
       <c r="K29" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L29" s="159"/>
-      <c r="M29" s="150"/>
-      <c r="N29" s="125"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="130"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="157"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="147"/>
+      <c r="A30" s="138"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="140"/>
       <c r="D30" s="40" t="s">
         <v>110</v>
       </c>
@@ -5832,14 +5832,14 @@
       <c r="K30" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L30" s="159"/>
-      <c r="M30" s="150"/>
-      <c r="N30" s="125"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="130"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="157"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="147"/>
+      <c r="A31" s="138"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="140"/>
       <c r="D31" s="40" t="s">
         <v>108</v>
       </c>
@@ -5864,14 +5864,14 @@
       <c r="K31" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L31" s="159"/>
-      <c r="M31" s="150"/>
-      <c r="N31" s="125"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="130"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="157"/>
-      <c r="B32" s="153"/>
-      <c r="C32" s="147"/>
+      <c r="A32" s="138"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="140"/>
       <c r="D32" s="40" t="s">
         <v>114</v>
       </c>
@@ -5896,14 +5896,14 @@
       <c r="K32" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L32" s="159"/>
-      <c r="M32" s="150"/>
-      <c r="N32" s="125"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="130"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="157"/>
-      <c r="B33" s="153"/>
-      <c r="C33" s="147"/>
+      <c r="A33" s="138"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="140"/>
       <c r="D33" s="41" t="s">
         <v>112</v>
       </c>
@@ -5928,14 +5928,14 @@
       <c r="K33" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="L33" s="160"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="126"/>
+      <c r="L33" s="124"/>
+      <c r="M33" s="127"/>
+      <c r="N33" s="131"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="157"/>
-      <c r="B34" s="153"/>
-      <c r="C34" s="147"/>
+      <c r="A34" s="138"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="140"/>
       <c r="D34" s="42" t="s">
         <v>124</v>
       </c>
@@ -5960,20 +5960,20 @@
       <c r="K34" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="L34" s="158">
+      <c r="L34" s="122">
         <v>42086</v>
       </c>
-      <c r="M34" s="149" t="s">
+      <c r="M34" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="N34" s="124" t="s">
+      <c r="N34" s="129" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="157"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="147"/>
+      <c r="A35" s="138"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="140"/>
       <c r="D35" s="40" t="s">
         <v>125</v>
       </c>
@@ -5998,14 +5998,14 @@
       <c r="K35" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="L35" s="159"/>
-      <c r="M35" s="150"/>
-      <c r="N35" s="125"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="126"/>
+      <c r="N35" s="130"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="157"/>
-      <c r="B36" s="153"/>
-      <c r="C36" s="147"/>
+      <c r="A36" s="138"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="140"/>
       <c r="D36" s="40" t="s">
         <v>126</v>
       </c>
@@ -6030,14 +6030,14 @@
       <c r="K36" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="L36" s="159"/>
-      <c r="M36" s="150"/>
-      <c r="N36" s="125"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="130"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="157"/>
-      <c r="B37" s="153"/>
-      <c r="C37" s="147"/>
+      <c r="A37" s="138"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="140"/>
       <c r="D37" s="40" t="s">
         <v>127</v>
       </c>
@@ -6062,14 +6062,14 @@
       <c r="K37" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="L37" s="159"/>
-      <c r="M37" s="150"/>
-      <c r="N37" s="125"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="126"/>
+      <c r="N37" s="130"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="157"/>
-      <c r="B38" s="153"/>
-      <c r="C38" s="147"/>
+      <c r="A38" s="138"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="140"/>
       <c r="D38" s="40" t="s">
         <v>128</v>
       </c>
@@ -6094,14 +6094,14 @@
       <c r="K38" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="L38" s="159"/>
-      <c r="M38" s="150"/>
-      <c r="N38" s="125"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="126"/>
+      <c r="N38" s="130"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="157"/>
-      <c r="B39" s="153"/>
-      <c r="C39" s="147"/>
+      <c r="A39" s="138"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="140"/>
       <c r="D39" s="40" t="s">
         <v>129</v>
       </c>
@@ -6126,14 +6126,14 @@
       <c r="K39" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="L39" s="159"/>
-      <c r="M39" s="150"/>
-      <c r="N39" s="125"/>
+      <c r="L39" s="123"/>
+      <c r="M39" s="126"/>
+      <c r="N39" s="130"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="157"/>
-      <c r="B40" s="153"/>
-      <c r="C40" s="147"/>
+      <c r="A40" s="138"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="140"/>
       <c r="D40" s="40" t="s">
         <v>130</v>
       </c>
@@ -6158,14 +6158,14 @@
       <c r="K40" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="L40" s="159"/>
-      <c r="M40" s="150"/>
-      <c r="N40" s="125"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="126"/>
+      <c r="N40" s="130"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="157"/>
-      <c r="B41" s="153"/>
-      <c r="C41" s="147"/>
+      <c r="A41" s="138"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="140"/>
       <c r="D41" s="41" t="s">
         <v>131</v>
       </c>
@@ -6190,14 +6190,14 @@
       <c r="K41" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="L41" s="160"/>
-      <c r="M41" s="151"/>
-      <c r="N41" s="125"/>
+      <c r="L41" s="124"/>
+      <c r="M41" s="127"/>
+      <c r="N41" s="130"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="157"/>
-      <c r="B42" s="153"/>
-      <c r="C42" s="147"/>
+      <c r="A42" s="138"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="140"/>
       <c r="D42" s="42" t="s">
         <v>145</v>
       </c>
@@ -6222,20 +6222,20 @@
       <c r="K42" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="L42" s="158">
+      <c r="L42" s="122">
         <v>41585</v>
       </c>
-      <c r="M42" s="149" t="s">
+      <c r="M42" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="N42" s="124" t="s">
+      <c r="N42" s="129" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="157"/>
-      <c r="B43" s="153"/>
-      <c r="C43" s="147"/>
+      <c r="A43" s="138"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="140"/>
       <c r="D43" s="41" t="s">
         <v>146</v>
       </c>
@@ -6260,14 +6260,14 @@
       <c r="K43" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="L43" s="160"/>
-      <c r="M43" s="151"/>
-      <c r="N43" s="126"/>
+      <c r="L43" s="124"/>
+      <c r="M43" s="127"/>
+      <c r="N43" s="131"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="157"/>
-      <c r="B44" s="153"/>
-      <c r="C44" s="147"/>
+      <c r="A44" s="138"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="140"/>
       <c r="D44" s="42" t="s">
         <v>152</v>
       </c>
@@ -6292,20 +6292,20 @@
       <c r="K44" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="L44" s="158">
+      <c r="L44" s="122">
         <v>41484</v>
       </c>
-      <c r="M44" s="149" t="s">
+      <c r="M44" s="125" t="s">
         <v>161</v>
       </c>
-      <c r="N44" s="124" t="s">
+      <c r="N44" s="129" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="157"/>
-      <c r="B45" s="153"/>
-      <c r="C45" s="147"/>
+      <c r="A45" s="138"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="140"/>
       <c r="D45" s="40" t="s">
         <v>153</v>
       </c>
@@ -6330,14 +6330,14 @@
       <c r="K45" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="L45" s="159"/>
-      <c r="M45" s="150"/>
-      <c r="N45" s="125"/>
+      <c r="L45" s="123"/>
+      <c r="M45" s="126"/>
+      <c r="N45" s="130"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="157"/>
-      <c r="B46" s="153"/>
-      <c r="C46" s="147"/>
+      <c r="A46" s="138"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="140"/>
       <c r="D46" s="41" t="s">
         <v>154</v>
       </c>
@@ -6362,14 +6362,14 @@
       <c r="K46" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="L46" s="160"/>
-      <c r="M46" s="151"/>
-      <c r="N46" s="125"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="127"/>
+      <c r="N46" s="130"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="157"/>
-      <c r="B47" s="153"/>
-      <c r="C47" s="148"/>
+      <c r="A47" s="138"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="141"/>
       <c r="D47" s="43" t="s">
         <v>166</v>
       </c>
@@ -6406,9 +6406,9 @@
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="157"/>
-      <c r="B48" s="153"/>
-      <c r="C48" s="152" t="s">
+      <c r="A48" s="138"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="139" t="s">
         <v>180</v>
       </c>
       <c r="D48" s="42" t="s">
@@ -6435,20 +6435,20 @@
       <c r="K48" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="L48" s="158">
+      <c r="L48" s="122">
         <v>41623</v>
       </c>
-      <c r="M48" s="149" t="s">
+      <c r="M48" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="N48" s="163" t="s">
+      <c r="N48" s="132" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="157"/>
-      <c r="B49" s="153"/>
-      <c r="C49" s="153"/>
+      <c r="A49" s="138"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="136"/>
       <c r="D49" s="40" t="s">
         <v>173</v>
       </c>
@@ -6473,14 +6473,14 @@
       <c r="K49" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="L49" s="159"/>
-      <c r="M49" s="150"/>
-      <c r="N49" s="164"/>
+      <c r="L49" s="123"/>
+      <c r="M49" s="126"/>
+      <c r="N49" s="133"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="157"/>
-      <c r="B50" s="153"/>
-      <c r="C50" s="153"/>
+      <c r="A50" s="138"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="136"/>
       <c r="D50" s="40" t="s">
         <v>185</v>
       </c>
@@ -6505,14 +6505,14 @@
       <c r="K50" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="L50" s="159"/>
-      <c r="M50" s="150"/>
-      <c r="N50" s="164"/>
+      <c r="L50" s="123"/>
+      <c r="M50" s="126"/>
+      <c r="N50" s="133"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="157"/>
-      <c r="B51" s="153"/>
-      <c r="C51" s="153"/>
+      <c r="A51" s="138"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="136"/>
       <c r="D51" s="40" t="s">
         <v>172</v>
       </c>
@@ -6537,14 +6537,14 @@
       <c r="K51" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="L51" s="159"/>
-      <c r="M51" s="150"/>
-      <c r="N51" s="164"/>
+      <c r="L51" s="123"/>
+      <c r="M51" s="126"/>
+      <c r="N51" s="133"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="157"/>
-      <c r="B52" s="153"/>
-      <c r="C52" s="153"/>
+      <c r="A52" s="138"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="136"/>
       <c r="D52" s="41" t="s">
         <v>186</v>
       </c>
@@ -6569,14 +6569,14 @@
       <c r="K52" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="L52" s="160"/>
-      <c r="M52" s="151"/>
-      <c r="N52" s="165"/>
+      <c r="L52" s="124"/>
+      <c r="M52" s="127"/>
+      <c r="N52" s="134"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="157"/>
-      <c r="B53" s="153"/>
-      <c r="C53" s="153"/>
+      <c r="A53" s="138"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="136"/>
       <c r="D53" s="43" t="s">
         <v>189</v>
       </c>
@@ -6613,9 +6613,9 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="157"/>
-      <c r="B54" s="153"/>
-      <c r="C54" s="153"/>
+      <c r="A54" s="138"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="136"/>
       <c r="D54" s="42" t="s">
         <v>191</v>
       </c>
@@ -6640,20 +6640,20 @@
       <c r="K54" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="L54" s="158">
+      <c r="L54" s="122">
         <v>41075</v>
       </c>
-      <c r="M54" s="149" t="s">
+      <c r="M54" s="125" t="s">
         <v>199</v>
       </c>
-      <c r="N54" s="124" t="s">
+      <c r="N54" s="129" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="157"/>
-      <c r="B55" s="153"/>
-      <c r="C55" s="153"/>
+      <c r="A55" s="138"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="136"/>
       <c r="D55" s="41" t="s">
         <v>192</v>
       </c>
@@ -6678,14 +6678,14 @@
       <c r="K55" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="L55" s="160"/>
-      <c r="M55" s="151"/>
-      <c r="N55" s="126"/>
+      <c r="L55" s="124"/>
+      <c r="M55" s="127"/>
+      <c r="N55" s="131"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="157"/>
-      <c r="B56" s="153"/>
-      <c r="C56" s="153"/>
+      <c r="A56" s="138"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="136"/>
       <c r="D56" s="42" t="s">
         <v>203</v>
       </c>
@@ -6710,20 +6710,20 @@
       <c r="K56" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="L56" s="158">
+      <c r="L56" s="122">
         <v>42485</v>
       </c>
-      <c r="M56" s="149" t="s">
+      <c r="M56" s="125" t="s">
         <v>216</v>
       </c>
-      <c r="N56" s="124" t="s">
+      <c r="N56" s="129" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="157"/>
-      <c r="B57" s="153"/>
-      <c r="C57" s="153"/>
+      <c r="A57" s="138"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="136"/>
       <c r="D57" s="40" t="s">
         <v>203</v>
       </c>
@@ -6748,14 +6748,14 @@
       <c r="K57" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="L57" s="159"/>
-      <c r="M57" s="150"/>
-      <c r="N57" s="125"/>
+      <c r="L57" s="123"/>
+      <c r="M57" s="126"/>
+      <c r="N57" s="130"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="157"/>
-      <c r="B58" s="153"/>
-      <c r="C58" s="153"/>
+      <c r="A58" s="138"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="136"/>
       <c r="D58" s="40" t="s">
         <v>203</v>
       </c>
@@ -6780,14 +6780,14 @@
       <c r="K58" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="L58" s="159"/>
-      <c r="M58" s="150"/>
-      <c r="N58" s="125"/>
+      <c r="L58" s="123"/>
+      <c r="M58" s="126"/>
+      <c r="N58" s="130"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="157"/>
-      <c r="B59" s="153"/>
-      <c r="C59" s="153"/>
+      <c r="A59" s="138"/>
+      <c r="B59" s="136"/>
+      <c r="C59" s="136"/>
       <c r="D59" s="41" t="s">
         <v>203</v>
       </c>
@@ -6812,14 +6812,14 @@
       <c r="K59" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="L59" s="160"/>
-      <c r="M59" s="151"/>
-      <c r="N59" s="126"/>
+      <c r="L59" s="124"/>
+      <c r="M59" s="127"/>
+      <c r="N59" s="131"/>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="157"/>
-      <c r="B60" s="153"/>
-      <c r="C60" s="153"/>
+      <c r="A60" s="138"/>
+      <c r="B60" s="136"/>
+      <c r="C60" s="136"/>
       <c r="D60" s="42" t="s">
         <v>218</v>
       </c>
@@ -6844,20 +6844,20 @@
       <c r="K60" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="L60" s="158">
+      <c r="L60" s="122">
         <v>42838</v>
       </c>
-      <c r="M60" s="149" t="s">
+      <c r="M60" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="N60" s="124" t="s">
+      <c r="N60" s="129" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="157"/>
-      <c r="B61" s="153"/>
-      <c r="C61" s="153"/>
+      <c r="A61" s="138"/>
+      <c r="B61" s="136"/>
+      <c r="C61" s="136"/>
       <c r="D61" s="40" t="s">
         <v>101</v>
       </c>
@@ -6882,14 +6882,14 @@
       <c r="K61" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L61" s="159"/>
-      <c r="M61" s="150"/>
-      <c r="N61" s="125"/>
+      <c r="L61" s="123"/>
+      <c r="M61" s="126"/>
+      <c r="N61" s="130"/>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="157"/>
-      <c r="B62" s="153"/>
-      <c r="C62" s="153"/>
+      <c r="A62" s="138"/>
+      <c r="B62" s="136"/>
+      <c r="C62" s="136"/>
       <c r="D62" s="40" t="s">
         <v>220</v>
       </c>
@@ -6914,14 +6914,14 @@
       <c r="K62" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L62" s="159"/>
-      <c r="M62" s="150"/>
-      <c r="N62" s="125"/>
+      <c r="L62" s="123"/>
+      <c r="M62" s="126"/>
+      <c r="N62" s="130"/>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="157"/>
-      <c r="B63" s="153"/>
-      <c r="C63" s="153"/>
+      <c r="A63" s="138"/>
+      <c r="B63" s="136"/>
+      <c r="C63" s="136"/>
       <c r="D63" s="40" t="s">
         <v>104</v>
       </c>
@@ -6946,14 +6946,14 @@
       <c r="K63" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L63" s="159"/>
-      <c r="M63" s="150"/>
-      <c r="N63" s="125"/>
+      <c r="L63" s="123"/>
+      <c r="M63" s="126"/>
+      <c r="N63" s="130"/>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="157"/>
-      <c r="B64" s="153"/>
-      <c r="C64" s="153"/>
+      <c r="A64" s="138"/>
+      <c r="B64" s="136"/>
+      <c r="C64" s="136"/>
       <c r="D64" s="40" t="s">
         <v>222</v>
       </c>
@@ -6978,14 +6978,14 @@
       <c r="K64" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L64" s="159"/>
-      <c r="M64" s="150"/>
-      <c r="N64" s="125"/>
+      <c r="L64" s="123"/>
+      <c r="M64" s="126"/>
+      <c r="N64" s="130"/>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="157"/>
-      <c r="B65" s="153"/>
-      <c r="C65" s="153"/>
+      <c r="A65" s="138"/>
+      <c r="B65" s="136"/>
+      <c r="C65" s="136"/>
       <c r="D65" s="40" t="s">
         <v>108</v>
       </c>
@@ -7010,14 +7010,14 @@
       <c r="K65" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L65" s="159"/>
-      <c r="M65" s="150"/>
-      <c r="N65" s="125"/>
+      <c r="L65" s="123"/>
+      <c r="M65" s="126"/>
+      <c r="N65" s="130"/>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="157"/>
-      <c r="B66" s="153"/>
-      <c r="C66" s="153"/>
+      <c r="A66" s="138"/>
+      <c r="B66" s="136"/>
+      <c r="C66" s="136"/>
       <c r="D66" s="40" t="s">
         <v>224</v>
       </c>
@@ -7042,14 +7042,14 @@
       <c r="K66" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L66" s="159"/>
-      <c r="M66" s="150"/>
-      <c r="N66" s="125"/>
+      <c r="L66" s="123"/>
+      <c r="M66" s="126"/>
+      <c r="N66" s="130"/>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="157"/>
-      <c r="B67" s="153"/>
-      <c r="C67" s="153"/>
+      <c r="A67" s="138"/>
+      <c r="B67" s="136"/>
+      <c r="C67" s="136"/>
       <c r="D67" s="41" t="s">
         <v>112</v>
       </c>
@@ -7074,14 +7074,14 @@
       <c r="K67" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="L67" s="160"/>
-      <c r="M67" s="151"/>
-      <c r="N67" s="126"/>
+      <c r="L67" s="124"/>
+      <c r="M67" s="127"/>
+      <c r="N67" s="131"/>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="157"/>
-      <c r="B68" s="153"/>
-      <c r="C68" s="154"/>
+      <c r="A68" s="138"/>
+      <c r="B68" s="136"/>
+      <c r="C68" s="137"/>
       <c r="D68" s="43" t="s">
         <v>227</v>
       </c>
@@ -7120,9 +7120,9 @@
       </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="157"/>
-      <c r="B69" s="153"/>
-      <c r="C69" s="152" t="s">
+      <c r="A69" s="138"/>
+      <c r="B69" s="136"/>
+      <c r="C69" s="139" t="s">
         <v>233</v>
       </c>
       <c r="D69" s="43" t="s">
@@ -7163,9 +7163,9 @@
       </c>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="157"/>
-      <c r="B70" s="153"/>
-      <c r="C70" s="153"/>
+      <c r="A70" s="138"/>
+      <c r="B70" s="136"/>
+      <c r="C70" s="136"/>
       <c r="D70" s="42" t="s">
         <v>239</v>
       </c>
@@ -7190,20 +7190,20 @@
       <c r="K70" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L70" s="158">
+      <c r="L70" s="122">
         <v>42262</v>
       </c>
-      <c r="M70" s="149" t="s">
+      <c r="M70" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="N70" s="124" t="s">
+      <c r="N70" s="129" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="157"/>
-      <c r="B71" s="153"/>
-      <c r="C71" s="153"/>
+      <c r="A71" s="138"/>
+      <c r="B71" s="136"/>
+      <c r="C71" s="136"/>
       <c r="D71" s="41" t="s">
         <v>240</v>
       </c>
@@ -7228,14 +7228,14 @@
       <c r="K71" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="L71" s="160"/>
-      <c r="M71" s="151"/>
-      <c r="N71" s="126"/>
+      <c r="L71" s="124"/>
+      <c r="M71" s="127"/>
+      <c r="N71" s="131"/>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="157"/>
-      <c r="B72" s="153"/>
-      <c r="C72" s="153"/>
+      <c r="A72" s="138"/>
+      <c r="B72" s="136"/>
+      <c r="C72" s="136"/>
       <c r="D72" s="42" t="s">
         <v>243</v>
       </c>
@@ -7260,20 +7260,20 @@
       <c r="K72" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="L72" s="158">
+      <c r="L72" s="122">
         <v>42485</v>
       </c>
-      <c r="M72" s="149" t="s">
+      <c r="M72" s="125" t="s">
         <v>216</v>
       </c>
-      <c r="N72" s="124" t="s">
+      <c r="N72" s="129" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="157"/>
-      <c r="B73" s="153"/>
-      <c r="C73" s="153"/>
+      <c r="A73" s="138"/>
+      <c r="B73" s="136"/>
+      <c r="C73" s="136"/>
       <c r="D73" s="41" t="s">
         <v>206</v>
       </c>
@@ -7298,14 +7298,14 @@
       <c r="K73" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="L73" s="160"/>
-      <c r="M73" s="151"/>
-      <c r="N73" s="126"/>
+      <c r="L73" s="124"/>
+      <c r="M73" s="127"/>
+      <c r="N73" s="131"/>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="157"/>
-      <c r="B74" s="153"/>
-      <c r="C74" s="153"/>
+      <c r="A74" s="138"/>
+      <c r="B74" s="136"/>
+      <c r="C74" s="136"/>
       <c r="D74" s="43" t="s">
         <v>247</v>
       </c>
@@ -7342,9 +7342,9 @@
       </c>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="157"/>
-      <c r="B75" s="153"/>
-      <c r="C75" s="153"/>
+      <c r="A75" s="138"/>
+      <c r="B75" s="136"/>
+      <c r="C75" s="136"/>
       <c r="D75" s="42" t="s">
         <v>251</v>
       </c>
@@ -7369,20 +7369,20 @@
       <c r="K75" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="L75" s="158">
+      <c r="L75" s="122">
         <v>41484</v>
       </c>
-      <c r="M75" s="149" t="s">
+      <c r="M75" s="125" t="s">
         <v>161</v>
       </c>
-      <c r="N75" s="124" t="s">
+      <c r="N75" s="129" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="157"/>
-      <c r="B76" s="153"/>
-      <c r="C76" s="153"/>
+      <c r="A76" s="138"/>
+      <c r="B76" s="136"/>
+      <c r="C76" s="136"/>
       <c r="D76" s="40" t="s">
         <v>252</v>
       </c>
@@ -7407,14 +7407,14 @@
       <c r="K76" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="L76" s="159"/>
-      <c r="M76" s="150"/>
-      <c r="N76" s="125"/>
+      <c r="L76" s="123"/>
+      <c r="M76" s="126"/>
+      <c r="N76" s="130"/>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="157"/>
-      <c r="B77" s="153"/>
-      <c r="C77" s="154"/>
+      <c r="A77" s="138"/>
+      <c r="B77" s="136"/>
+      <c r="C77" s="137"/>
       <c r="D77" s="41" t="s">
         <v>154</v>
       </c>
@@ -7439,13 +7439,13 @@
       <c r="K77" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="L77" s="160"/>
-      <c r="M77" s="151"/>
-      <c r="N77" s="126"/>
+      <c r="L77" s="124"/>
+      <c r="M77" s="127"/>
+      <c r="N77" s="131"/>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="157"/>
-      <c r="B78" s="154"/>
+      <c r="A78" s="138"/>
+      <c r="B78" s="137"/>
       <c r="C78" s="24" t="s">
         <v>255</v>
       </c>
@@ -7485,11 +7485,11 @@
       </c>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" s="157"/>
-      <c r="B79" s="152" t="s">
+      <c r="A79" s="138"/>
+      <c r="B79" s="139" t="s">
         <v>932</v>
       </c>
-      <c r="C79" s="155" t="s">
+      <c r="C79" s="143" t="s">
         <v>933</v>
       </c>
       <c r="D79" s="43" t="s">
@@ -7528,9 +7528,9 @@
       </c>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="157"/>
-      <c r="B80" s="153"/>
-      <c r="C80" s="156"/>
+      <c r="A80" s="138"/>
+      <c r="B80" s="136"/>
+      <c r="C80" s="144"/>
       <c r="D80" s="42" t="s">
         <v>939</v>
       </c>
@@ -7555,20 +7555,20 @@
       <c r="K80" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="L80" s="158">
+      <c r="L80" s="122">
         <v>41823</v>
       </c>
-      <c r="M80" s="149" t="s">
+      <c r="M80" s="125" t="s">
         <v>944</v>
       </c>
-      <c r="N80" s="124" t="s">
+      <c r="N80" s="129" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="81" spans="1:16">
-      <c r="A81" s="157"/>
-      <c r="B81" s="154"/>
-      <c r="C81" s="156"/>
+      <c r="A81" s="138"/>
+      <c r="B81" s="137"/>
+      <c r="C81" s="144"/>
       <c r="D81" s="40" t="s">
         <v>940</v>
       </c>
@@ -7593,19 +7593,19 @@
       <c r="K81" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="L81" s="160"/>
-      <c r="M81" s="151"/>
-      <c r="N81" s="126"/>
+      <c r="L81" s="124"/>
+      <c r="M81" s="127"/>
+      <c r="N81" s="131"/>
       <c r="P81" s="1"/>
     </row>
     <row r="82" spans="1:16">
-      <c r="A82" s="142" t="s">
+      <c r="A82" s="163" t="s">
+        <v>260</v>
+      </c>
+      <c r="B82" s="157" t="s">
         <v>259</v>
       </c>
-      <c r="B82" s="136" t="s">
-        <v>260</v>
-      </c>
-      <c r="C82" s="136" t="s">
+      <c r="C82" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D82" s="42" t="s">
@@ -7632,20 +7632,20 @@
       <c r="K82" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="L82" s="158">
+      <c r="L82" s="122">
         <v>40645</v>
       </c>
-      <c r="M82" s="149" t="s">
+      <c r="M82" s="125" t="s">
         <v>278</v>
       </c>
-      <c r="N82" s="139" t="s">
+      <c r="N82" s="160" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="83" spans="1:16">
-      <c r="A83" s="142"/>
-      <c r="B83" s="137"/>
-      <c r="C83" s="137"/>
+      <c r="A83" s="163"/>
+      <c r="B83" s="158"/>
+      <c r="C83" s="158"/>
       <c r="D83" s="40" t="s">
         <v>264</v>
       </c>
@@ -7670,15 +7670,15 @@
       <c r="K83" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="L83" s="159"/>
-      <c r="M83" s="150"/>
-      <c r="N83" s="140"/>
+      <c r="L83" s="123"/>
+      <c r="M83" s="126"/>
+      <c r="N83" s="161"/>
       <c r="P83" s="10"/>
     </row>
     <row r="84" spans="1:16">
-      <c r="A84" s="142"/>
-      <c r="B84" s="137"/>
-      <c r="C84" s="137"/>
+      <c r="A84" s="163"/>
+      <c r="B84" s="158"/>
+      <c r="C84" s="158"/>
       <c r="D84" s="40" t="s">
         <v>273</v>
       </c>
@@ -7703,15 +7703,15 @@
       <c r="K84" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="L84" s="159"/>
-      <c r="M84" s="150"/>
-      <c r="N84" s="140"/>
+      <c r="L84" s="123"/>
+      <c r="M84" s="126"/>
+      <c r="N84" s="161"/>
       <c r="P84" s="10"/>
     </row>
     <row r="85" spans="1:16">
-      <c r="A85" s="142"/>
-      <c r="B85" s="138"/>
-      <c r="C85" s="138"/>
+      <c r="A85" s="163"/>
+      <c r="B85" s="159"/>
+      <c r="C85" s="159"/>
       <c r="D85" s="41" t="s">
         <v>272</v>
       </c>
@@ -7736,19 +7736,19 @@
       <c r="K85" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="L85" s="160"/>
-      <c r="M85" s="151"/>
-      <c r="N85" s="141"/>
+      <c r="L85" s="124"/>
+      <c r="M85" s="127"/>
+      <c r="N85" s="162"/>
       <c r="P85" s="11"/>
     </row>
     <row r="86" spans="1:16">
-      <c r="A86" s="145" t="s">
+      <c r="A86" s="166" t="s">
         <v>280</v>
       </c>
-      <c r="B86" s="130" t="s">
+      <c r="B86" s="151" t="s">
         <v>870</v>
       </c>
-      <c r="C86" s="131"/>
+      <c r="C86" s="152"/>
       <c r="D86" s="42" t="s">
         <v>289</v>
       </c>
@@ -7773,20 +7773,20 @@
       <c r="K86" s="51" t="s">
         <v>484</v>
       </c>
-      <c r="L86" s="158">
+      <c r="L86" s="122">
         <v>42832</v>
       </c>
-      <c r="M86" s="149" t="s">
+      <c r="M86" s="125" t="s">
         <v>308</v>
       </c>
-      <c r="N86" s="143" t="s">
+      <c r="N86" s="164" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:16">
-      <c r="A87" s="145"/>
-      <c r="B87" s="132"/>
-      <c r="C87" s="133"/>
+      <c r="A87" s="166"/>
+      <c r="B87" s="153"/>
+      <c r="C87" s="154"/>
       <c r="D87" s="40" t="s">
         <v>290</v>
       </c>
@@ -7811,15 +7811,15 @@
       <c r="K87" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L87" s="159"/>
-      <c r="M87" s="150"/>
-      <c r="N87" s="144"/>
+      <c r="L87" s="123"/>
+      <c r="M87" s="126"/>
+      <c r="N87" s="165"/>
       <c r="P87" s="8"/>
     </row>
     <row r="88" spans="1:16">
-      <c r="A88" s="145"/>
-      <c r="B88" s="132"/>
-      <c r="C88" s="133"/>
+      <c r="A88" s="166"/>
+      <c r="B88" s="153"/>
+      <c r="C88" s="154"/>
       <c r="D88" s="40" t="s">
         <v>291</v>
       </c>
@@ -7844,15 +7844,15 @@
       <c r="K88" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L88" s="159"/>
-      <c r="M88" s="150"/>
-      <c r="N88" s="144"/>
+      <c r="L88" s="123"/>
+      <c r="M88" s="126"/>
+      <c r="N88" s="165"/>
       <c r="P88" s="8"/>
     </row>
     <row r="89" spans="1:16">
-      <c r="A89" s="145"/>
-      <c r="B89" s="132"/>
-      <c r="C89" s="133"/>
+      <c r="A89" s="166"/>
+      <c r="B89" s="153"/>
+      <c r="C89" s="154"/>
       <c r="D89" s="40" t="s">
         <v>292</v>
       </c>
@@ -7877,15 +7877,15 @@
       <c r="K89" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L89" s="159"/>
-      <c r="M89" s="150"/>
-      <c r="N89" s="144"/>
+      <c r="L89" s="123"/>
+      <c r="M89" s="126"/>
+      <c r="N89" s="165"/>
       <c r="P89" s="8"/>
     </row>
     <row r="90" spans="1:16">
-      <c r="A90" s="145"/>
-      <c r="B90" s="132"/>
-      <c r="C90" s="133"/>
+      <c r="A90" s="166"/>
+      <c r="B90" s="153"/>
+      <c r="C90" s="154"/>
       <c r="D90" s="40" t="s">
         <v>293</v>
       </c>
@@ -7910,15 +7910,15 @@
       <c r="K90" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L90" s="159"/>
-      <c r="M90" s="150"/>
-      <c r="N90" s="144"/>
+      <c r="L90" s="123"/>
+      <c r="M90" s="126"/>
+      <c r="N90" s="165"/>
       <c r="P90" s="8"/>
     </row>
     <row r="91" spans="1:16">
-      <c r="A91" s="145"/>
-      <c r="B91" s="132"/>
-      <c r="C91" s="133"/>
+      <c r="A91" s="166"/>
+      <c r="B91" s="153"/>
+      <c r="C91" s="154"/>
       <c r="D91" s="40" t="s">
         <v>294</v>
       </c>
@@ -7943,15 +7943,15 @@
       <c r="K91" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L91" s="159"/>
-      <c r="M91" s="150"/>
-      <c r="N91" s="144"/>
+      <c r="L91" s="123"/>
+      <c r="M91" s="126"/>
+      <c r="N91" s="165"/>
       <c r="P91" s="8"/>
     </row>
     <row r="92" spans="1:16">
-      <c r="A92" s="145"/>
-      <c r="B92" s="132"/>
-      <c r="C92" s="133"/>
+      <c r="A92" s="166"/>
+      <c r="B92" s="153"/>
+      <c r="C92" s="154"/>
       <c r="D92" s="40" t="s">
         <v>295</v>
       </c>
@@ -7976,15 +7976,15 @@
       <c r="K92" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L92" s="159"/>
-      <c r="M92" s="150"/>
-      <c r="N92" s="144"/>
+      <c r="L92" s="123"/>
+      <c r="M92" s="126"/>
+      <c r="N92" s="165"/>
       <c r="P92" s="8"/>
     </row>
     <row r="93" spans="1:16">
-      <c r="A93" s="145"/>
-      <c r="B93" s="134"/>
-      <c r="C93" s="135"/>
+      <c r="A93" s="166"/>
+      <c r="B93" s="155"/>
+      <c r="C93" s="156"/>
       <c r="D93" s="41" t="s">
         <v>296</v>
       </c>
@@ -8009,17 +8009,17 @@
       <c r="K93" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="L93" s="160"/>
-      <c r="M93" s="151"/>
-      <c r="N93" s="144"/>
+      <c r="L93" s="124"/>
+      <c r="M93" s="127"/>
+      <c r="N93" s="165"/>
       <c r="P93" s="9"/>
     </row>
     <row r="94" spans="1:16">
-      <c r="A94" s="145"/>
-      <c r="B94" s="130" t="s">
+      <c r="A94" s="166"/>
+      <c r="B94" s="151" t="s">
         <v>310</v>
       </c>
-      <c r="C94" s="131"/>
+      <c r="C94" s="152"/>
       <c r="D94" s="42" t="s">
         <v>318</v>
       </c>
@@ -8044,20 +8044,20 @@
       <c r="K94" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L94" s="158">
+      <c r="L94" s="122">
         <v>41095</v>
       </c>
-      <c r="M94" s="149" t="s">
+      <c r="M94" s="125" t="s">
         <v>312</v>
       </c>
-      <c r="N94" s="121" t="s">
+      <c r="N94" s="145" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="95" spans="1:16">
-      <c r="A95" s="145"/>
-      <c r="B95" s="132"/>
-      <c r="C95" s="133"/>
+      <c r="A95" s="166"/>
+      <c r="B95" s="153"/>
+      <c r="C95" s="154"/>
       <c r="D95" s="40" t="s">
         <v>319</v>
       </c>
@@ -8082,15 +8082,15 @@
       <c r="K95" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L95" s="159"/>
-      <c r="M95" s="150"/>
-      <c r="N95" s="122"/>
+      <c r="L95" s="123"/>
+      <c r="M95" s="126"/>
+      <c r="N95" s="146"/>
       <c r="P95" s="12"/>
     </row>
     <row r="96" spans="1:16">
-      <c r="A96" s="145"/>
-      <c r="B96" s="132"/>
-      <c r="C96" s="133"/>
+      <c r="A96" s="166"/>
+      <c r="B96" s="153"/>
+      <c r="C96" s="154"/>
       <c r="D96" s="40" t="s">
         <v>320</v>
       </c>
@@ -8115,15 +8115,15 @@
       <c r="K96" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L96" s="159"/>
-      <c r="M96" s="150"/>
-      <c r="N96" s="122"/>
+      <c r="L96" s="123"/>
+      <c r="M96" s="126"/>
+      <c r="N96" s="146"/>
       <c r="P96" s="12"/>
     </row>
     <row r="97" spans="1:16">
-      <c r="A97" s="145"/>
-      <c r="B97" s="132"/>
-      <c r="C97" s="133"/>
+      <c r="A97" s="166"/>
+      <c r="B97" s="153"/>
+      <c r="C97" s="154"/>
       <c r="D97" s="40" t="s">
         <v>321</v>
       </c>
@@ -8148,15 +8148,15 @@
       <c r="K97" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L97" s="159"/>
-      <c r="M97" s="150"/>
-      <c r="N97" s="122"/>
+      <c r="L97" s="123"/>
+      <c r="M97" s="126"/>
+      <c r="N97" s="146"/>
       <c r="P97" s="12"/>
     </row>
     <row r="98" spans="1:16">
-      <c r="A98" s="145"/>
-      <c r="B98" s="132"/>
-      <c r="C98" s="133"/>
+      <c r="A98" s="166"/>
+      <c r="B98" s="153"/>
+      <c r="C98" s="154"/>
       <c r="D98" s="41" t="s">
         <v>322</v>
       </c>
@@ -8181,15 +8181,15 @@
       <c r="K98" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="L98" s="160"/>
-      <c r="M98" s="151"/>
-      <c r="N98" s="123"/>
+      <c r="L98" s="124"/>
+      <c r="M98" s="127"/>
+      <c r="N98" s="147"/>
       <c r="P98" s="13"/>
     </row>
     <row r="99" spans="1:16">
-      <c r="A99" s="145"/>
-      <c r="B99" s="132"/>
-      <c r="C99" s="133"/>
+      <c r="A99" s="166"/>
+      <c r="B99" s="153"/>
+      <c r="C99" s="154"/>
       <c r="D99" s="42" t="s">
         <v>342</v>
       </c>
@@ -8214,20 +8214,20 @@
       <c r="K99" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="L99" s="158">
+      <c r="L99" s="122">
         <v>41907</v>
       </c>
-      <c r="M99" s="149" t="s">
+      <c r="M99" s="125" t="s">
         <v>366</v>
       </c>
-      <c r="N99" s="124" t="s">
+      <c r="N99" s="129" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="100" spans="1:16">
-      <c r="A100" s="145"/>
-      <c r="B100" s="132"/>
-      <c r="C100" s="133"/>
+      <c r="A100" s="166"/>
+      <c r="B100" s="153"/>
+      <c r="C100" s="154"/>
       <c r="D100" s="40" t="s">
         <v>343</v>
       </c>
@@ -8252,15 +8252,15 @@
       <c r="K100" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L100" s="159"/>
-      <c r="M100" s="150"/>
-      <c r="N100" s="125"/>
+      <c r="L100" s="123"/>
+      <c r="M100" s="126"/>
+      <c r="N100" s="130"/>
       <c r="P100" s="1"/>
     </row>
     <row r="101" spans="1:16">
-      <c r="A101" s="145"/>
-      <c r="B101" s="132"/>
-      <c r="C101" s="133"/>
+      <c r="A101" s="166"/>
+      <c r="B101" s="153"/>
+      <c r="C101" s="154"/>
       <c r="D101" s="40" t="s">
         <v>344</v>
       </c>
@@ -8285,15 +8285,15 @@
       <c r="K101" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L101" s="159"/>
-      <c r="M101" s="150"/>
-      <c r="N101" s="125"/>
+      <c r="L101" s="123"/>
+      <c r="M101" s="126"/>
+      <c r="N101" s="130"/>
       <c r="P101" s="1"/>
     </row>
     <row r="102" spans="1:16">
-      <c r="A102" s="145"/>
-      <c r="B102" s="132"/>
-      <c r="C102" s="133"/>
+      <c r="A102" s="166"/>
+      <c r="B102" s="153"/>
+      <c r="C102" s="154"/>
       <c r="D102" s="40" t="s">
         <v>345</v>
       </c>
@@ -8318,15 +8318,15 @@
       <c r="K102" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L102" s="159"/>
-      <c r="M102" s="150"/>
-      <c r="N102" s="125"/>
+      <c r="L102" s="123"/>
+      <c r="M102" s="126"/>
+      <c r="N102" s="130"/>
       <c r="P102" s="1"/>
     </row>
     <row r="103" spans="1:16">
-      <c r="A103" s="145"/>
-      <c r="B103" s="132"/>
-      <c r="C103" s="133"/>
+      <c r="A103" s="166"/>
+      <c r="B103" s="153"/>
+      <c r="C103" s="154"/>
       <c r="D103" s="40" t="s">
         <v>346</v>
       </c>
@@ -8351,15 +8351,15 @@
       <c r="K103" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L103" s="159"/>
-      <c r="M103" s="150"/>
-      <c r="N103" s="125"/>
+      <c r="L103" s="123"/>
+      <c r="M103" s="126"/>
+      <c r="N103" s="130"/>
       <c r="P103" s="1"/>
     </row>
     <row r="104" spans="1:16">
-      <c r="A104" s="145"/>
-      <c r="B104" s="132"/>
-      <c r="C104" s="133"/>
+      <c r="A104" s="166"/>
+      <c r="B104" s="153"/>
+      <c r="C104" s="154"/>
       <c r="D104" s="40" t="s">
         <v>347</v>
       </c>
@@ -8384,15 +8384,15 @@
       <c r="K104" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L104" s="159"/>
-      <c r="M104" s="150"/>
-      <c r="N104" s="125"/>
+      <c r="L104" s="123"/>
+      <c r="M104" s="126"/>
+      <c r="N104" s="130"/>
       <c r="P104" s="1"/>
     </row>
     <row r="105" spans="1:16">
-      <c r="A105" s="145"/>
-      <c r="B105" s="132"/>
-      <c r="C105" s="133"/>
+      <c r="A105" s="166"/>
+      <c r="B105" s="153"/>
+      <c r="C105" s="154"/>
       <c r="D105" s="40" t="s">
         <v>348</v>
       </c>
@@ -8417,15 +8417,15 @@
       <c r="K105" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L105" s="159"/>
-      <c r="M105" s="150"/>
-      <c r="N105" s="125"/>
+      <c r="L105" s="123"/>
+      <c r="M105" s="126"/>
+      <c r="N105" s="130"/>
       <c r="P105" s="1"/>
     </row>
     <row r="106" spans="1:16">
-      <c r="A106" s="145"/>
-      <c r="B106" s="132"/>
-      <c r="C106" s="133"/>
+      <c r="A106" s="166"/>
+      <c r="B106" s="153"/>
+      <c r="C106" s="154"/>
       <c r="D106" s="40" t="s">
         <v>349</v>
       </c>
@@ -8450,15 +8450,15 @@
       <c r="K106" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L106" s="159"/>
-      <c r="M106" s="150"/>
-      <c r="N106" s="125"/>
+      <c r="L106" s="123"/>
+      <c r="M106" s="126"/>
+      <c r="N106" s="130"/>
       <c r="P106" s="1"/>
     </row>
     <row r="107" spans="1:16">
-      <c r="A107" s="145"/>
-      <c r="B107" s="132"/>
-      <c r="C107" s="133"/>
+      <c r="A107" s="166"/>
+      <c r="B107" s="153"/>
+      <c r="C107" s="154"/>
       <c r="D107" s="40" t="s">
         <v>350</v>
       </c>
@@ -8483,15 +8483,15 @@
       <c r="K107" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L107" s="159"/>
-      <c r="M107" s="150"/>
-      <c r="N107" s="125"/>
+      <c r="L107" s="123"/>
+      <c r="M107" s="126"/>
+      <c r="N107" s="130"/>
       <c r="P107" s="1"/>
     </row>
     <row r="108" spans="1:16">
-      <c r="A108" s="145"/>
-      <c r="B108" s="132"/>
-      <c r="C108" s="133"/>
+      <c r="A108" s="166"/>
+      <c r="B108" s="153"/>
+      <c r="C108" s="154"/>
       <c r="D108" s="40" t="s">
         <v>351</v>
       </c>
@@ -8516,15 +8516,15 @@
       <c r="K108" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L108" s="159"/>
-      <c r="M108" s="150"/>
-      <c r="N108" s="125"/>
+      <c r="L108" s="123"/>
+      <c r="M108" s="126"/>
+      <c r="N108" s="130"/>
       <c r="P108" s="1"/>
     </row>
     <row r="109" spans="1:16">
-      <c r="A109" s="145"/>
-      <c r="B109" s="132"/>
-      <c r="C109" s="133"/>
+      <c r="A109" s="166"/>
+      <c r="B109" s="153"/>
+      <c r="C109" s="154"/>
       <c r="D109" s="40" t="s">
         <v>431</v>
       </c>
@@ -8549,15 +8549,15 @@
       <c r="K109" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L109" s="159"/>
-      <c r="M109" s="150"/>
-      <c r="N109" s="125"/>
+      <c r="L109" s="123"/>
+      <c r="M109" s="126"/>
+      <c r="N109" s="130"/>
       <c r="P109" s="1"/>
     </row>
     <row r="110" spans="1:16">
-      <c r="A110" s="145"/>
-      <c r="B110" s="132"/>
-      <c r="C110" s="133"/>
+      <c r="A110" s="166"/>
+      <c r="B110" s="153"/>
+      <c r="C110" s="154"/>
       <c r="D110" s="40" t="s">
         <v>432</v>
       </c>
@@ -8582,15 +8582,15 @@
       <c r="K110" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L110" s="159"/>
-      <c r="M110" s="150"/>
-      <c r="N110" s="125"/>
+      <c r="L110" s="123"/>
+      <c r="M110" s="126"/>
+      <c r="N110" s="130"/>
       <c r="P110" s="1"/>
     </row>
     <row r="111" spans="1:16">
-      <c r="A111" s="145"/>
-      <c r="B111" s="132"/>
-      <c r="C111" s="133"/>
+      <c r="A111" s="166"/>
+      <c r="B111" s="153"/>
+      <c r="C111" s="154"/>
       <c r="D111" s="40" t="s">
         <v>352</v>
       </c>
@@ -8615,15 +8615,15 @@
       <c r="K111" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L111" s="159"/>
-      <c r="M111" s="150"/>
-      <c r="N111" s="125"/>
+      <c r="L111" s="123"/>
+      <c r="M111" s="126"/>
+      <c r="N111" s="130"/>
       <c r="P111" s="1"/>
     </row>
     <row r="112" spans="1:16">
-      <c r="A112" s="145"/>
-      <c r="B112" s="132"/>
-      <c r="C112" s="133"/>
+      <c r="A112" s="166"/>
+      <c r="B112" s="153"/>
+      <c r="C112" s="154"/>
       <c r="D112" s="40" t="s">
         <v>430</v>
       </c>
@@ -8648,15 +8648,15 @@
       <c r="K112" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L112" s="160"/>
-      <c r="M112" s="151"/>
-      <c r="N112" s="126"/>
+      <c r="L112" s="124"/>
+      <c r="M112" s="127"/>
+      <c r="N112" s="131"/>
       <c r="P112" s="2"/>
     </row>
     <row r="113" spans="1:16">
-      <c r="A113" s="145"/>
-      <c r="B113" s="132"/>
-      <c r="C113" s="133"/>
+      <c r="A113" s="166"/>
+      <c r="B113" s="153"/>
+      <c r="C113" s="154"/>
       <c r="D113" s="42" t="s">
         <v>390</v>
       </c>
@@ -8681,20 +8681,20 @@
       <c r="K113" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="L113" s="158">
+      <c r="L113" s="122">
         <v>43783</v>
       </c>
-      <c r="M113" s="149" t="s">
+      <c r="M113" s="125" t="s">
         <v>368</v>
       </c>
-      <c r="N113" s="127" t="s">
+      <c r="N113" s="148" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="114" spans="1:16">
-      <c r="A114" s="145"/>
-      <c r="B114" s="132"/>
-      <c r="C114" s="133"/>
+      <c r="A114" s="166"/>
+      <c r="B114" s="153"/>
+      <c r="C114" s="154"/>
       <c r="D114" s="40" t="s">
         <v>391</v>
       </c>
@@ -8719,15 +8719,15 @@
       <c r="K114" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="L114" s="159"/>
-      <c r="M114" s="150"/>
-      <c r="N114" s="128"/>
+      <c r="L114" s="123"/>
+      <c r="M114" s="126"/>
+      <c r="N114" s="149"/>
       <c r="P114" s="14"/>
     </row>
     <row r="115" spans="1:16">
-      <c r="A115" s="145"/>
-      <c r="B115" s="132"/>
-      <c r="C115" s="133"/>
+      <c r="A115" s="166"/>
+      <c r="B115" s="153"/>
+      <c r="C115" s="154"/>
       <c r="D115" s="40" t="s">
         <v>391</v>
       </c>
@@ -8752,15 +8752,15 @@
       <c r="K115" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="L115" s="159"/>
-      <c r="M115" s="150"/>
-      <c r="N115" s="128"/>
+      <c r="L115" s="123"/>
+      <c r="M115" s="126"/>
+      <c r="N115" s="149"/>
       <c r="P115" s="14"/>
     </row>
     <row r="116" spans="1:16">
-      <c r="A116" s="145"/>
-      <c r="B116" s="132"/>
-      <c r="C116" s="133"/>
+      <c r="A116" s="166"/>
+      <c r="B116" s="153"/>
+      <c r="C116" s="154"/>
       <c r="D116" s="40" t="s">
         <v>391</v>
       </c>
@@ -8785,15 +8785,15 @@
       <c r="K116" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L116" s="159"/>
-      <c r="M116" s="150"/>
-      <c r="N116" s="128"/>
+      <c r="L116" s="123"/>
+      <c r="M116" s="126"/>
+      <c r="N116" s="149"/>
       <c r="P116" s="14"/>
     </row>
     <row r="117" spans="1:16">
-      <c r="A117" s="145"/>
-      <c r="B117" s="132"/>
-      <c r="C117" s="133"/>
+      <c r="A117" s="166"/>
+      <c r="B117" s="153"/>
+      <c r="C117" s="154"/>
       <c r="D117" s="40" t="s">
         <v>392</v>
       </c>
@@ -8818,15 +8818,15 @@
       <c r="K117" s="52" t="s">
         <v>484</v>
       </c>
-      <c r="L117" s="159"/>
-      <c r="M117" s="150"/>
-      <c r="N117" s="128"/>
+      <c r="L117" s="123"/>
+      <c r="M117" s="126"/>
+      <c r="N117" s="149"/>
       <c r="P117" s="14"/>
     </row>
     <row r="118" spans="1:16">
-      <c r="A118" s="145"/>
-      <c r="B118" s="132"/>
-      <c r="C118" s="133"/>
+      <c r="A118" s="166"/>
+      <c r="B118" s="153"/>
+      <c r="C118" s="154"/>
       <c r="D118" s="40" t="s">
         <v>393</v>
       </c>
@@ -8851,15 +8851,15 @@
       <c r="K118" s="52" t="s">
         <v>426</v>
       </c>
-      <c r="L118" s="159"/>
-      <c r="M118" s="150"/>
-      <c r="N118" s="128"/>
+      <c r="L118" s="123"/>
+      <c r="M118" s="126"/>
+      <c r="N118" s="149"/>
       <c r="P118" s="14"/>
     </row>
     <row r="119" spans="1:16">
-      <c r="A119" s="145"/>
-      <c r="B119" s="132"/>
-      <c r="C119" s="133"/>
+      <c r="A119" s="166"/>
+      <c r="B119" s="153"/>
+      <c r="C119" s="154"/>
       <c r="D119" s="40" t="s">
         <v>394</v>
       </c>
@@ -8884,15 +8884,15 @@
       <c r="K119" s="52" t="s">
         <v>426</v>
       </c>
-      <c r="L119" s="159"/>
-      <c r="M119" s="150"/>
-      <c r="N119" s="128"/>
+      <c r="L119" s="123"/>
+      <c r="M119" s="126"/>
+      <c r="N119" s="149"/>
       <c r="P119" s="14"/>
     </row>
     <row r="120" spans="1:16">
-      <c r="A120" s="145"/>
-      <c r="B120" s="132"/>
-      <c r="C120" s="133"/>
+      <c r="A120" s="166"/>
+      <c r="B120" s="153"/>
+      <c r="C120" s="154"/>
       <c r="D120" s="40" t="s">
         <v>395</v>
       </c>
@@ -8917,15 +8917,15 @@
       <c r="K120" s="52" t="s">
         <v>427</v>
       </c>
-      <c r="L120" s="159"/>
-      <c r="M120" s="150"/>
-      <c r="N120" s="128"/>
+      <c r="L120" s="123"/>
+      <c r="M120" s="126"/>
+      <c r="N120" s="149"/>
       <c r="P120" s="14"/>
     </row>
     <row r="121" spans="1:16">
-      <c r="A121" s="145"/>
-      <c r="B121" s="132"/>
-      <c r="C121" s="133"/>
+      <c r="A121" s="166"/>
+      <c r="B121" s="153"/>
+      <c r="C121" s="154"/>
       <c r="D121" s="40" t="s">
         <v>396</v>
       </c>
@@ -8950,15 +8950,15 @@
       <c r="K121" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="L121" s="159"/>
-      <c r="M121" s="150"/>
-      <c r="N121" s="128"/>
+      <c r="L121" s="123"/>
+      <c r="M121" s="126"/>
+      <c r="N121" s="149"/>
       <c r="P121" s="14"/>
     </row>
     <row r="122" spans="1:16">
-      <c r="A122" s="145"/>
-      <c r="B122" s="132"/>
-      <c r="C122" s="133"/>
+      <c r="A122" s="166"/>
+      <c r="B122" s="153"/>
+      <c r="C122" s="154"/>
       <c r="D122" s="40" t="s">
         <v>397</v>
       </c>
@@ -8983,15 +8983,15 @@
       <c r="K122" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="L122" s="159"/>
-      <c r="M122" s="150"/>
-      <c r="N122" s="128"/>
+      <c r="L122" s="123"/>
+      <c r="M122" s="126"/>
+      <c r="N122" s="149"/>
       <c r="P122" s="14"/>
     </row>
     <row r="123" spans="1:16">
-      <c r="A123" s="145"/>
-      <c r="B123" s="132"/>
-      <c r="C123" s="133"/>
+      <c r="A123" s="166"/>
+      <c r="B123" s="153"/>
+      <c r="C123" s="154"/>
       <c r="D123" s="40" t="s">
         <v>398</v>
       </c>
@@ -9016,15 +9016,15 @@
       <c r="K123" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="L123" s="159"/>
-      <c r="M123" s="150"/>
-      <c r="N123" s="128"/>
+      <c r="L123" s="123"/>
+      <c r="M123" s="126"/>
+      <c r="N123" s="149"/>
       <c r="P123" s="14"/>
     </row>
     <row r="124" spans="1:16">
-      <c r="A124" s="145"/>
-      <c r="B124" s="132"/>
-      <c r="C124" s="133"/>
+      <c r="A124" s="166"/>
+      <c r="B124" s="153"/>
+      <c r="C124" s="154"/>
       <c r="D124" s="40" t="s">
         <v>398</v>
       </c>
@@ -9049,15 +9049,15 @@
       <c r="K124" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="L124" s="159"/>
-      <c r="M124" s="150"/>
-      <c r="N124" s="128"/>
+      <c r="L124" s="123"/>
+      <c r="M124" s="126"/>
+      <c r="N124" s="149"/>
       <c r="P124" s="14"/>
     </row>
     <row r="125" spans="1:16">
-      <c r="A125" s="145"/>
-      <c r="B125" s="132"/>
-      <c r="C125" s="133"/>
+      <c r="A125" s="166"/>
+      <c r="B125" s="153"/>
+      <c r="C125" s="154"/>
       <c r="D125" s="40" t="s">
         <v>399</v>
       </c>
@@ -9082,15 +9082,15 @@
       <c r="K125" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="L125" s="159"/>
-      <c r="M125" s="150"/>
-      <c r="N125" s="128"/>
+      <c r="L125" s="123"/>
+      <c r="M125" s="126"/>
+      <c r="N125" s="149"/>
       <c r="P125" s="14"/>
     </row>
     <row r="126" spans="1:16">
-      <c r="A126" s="145"/>
-      <c r="B126" s="132"/>
-      <c r="C126" s="133"/>
+      <c r="A126" s="166"/>
+      <c r="B126" s="153"/>
+      <c r="C126" s="154"/>
       <c r="D126" s="40" t="s">
         <v>400</v>
       </c>
@@ -9115,15 +9115,15 @@
       <c r="K126" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="L126" s="159"/>
-      <c r="M126" s="150"/>
-      <c r="N126" s="128"/>
+      <c r="L126" s="123"/>
+      <c r="M126" s="126"/>
+      <c r="N126" s="149"/>
       <c r="P126" s="14"/>
     </row>
     <row r="127" spans="1:16">
-      <c r="A127" s="145"/>
-      <c r="B127" s="132"/>
-      <c r="C127" s="133"/>
+      <c r="A127" s="166"/>
+      <c r="B127" s="153"/>
+      <c r="C127" s="154"/>
       <c r="D127" s="40" t="s">
         <v>401</v>
       </c>
@@ -9148,15 +9148,15 @@
       <c r="K127" s="52" t="s">
         <v>484</v>
       </c>
-      <c r="L127" s="159"/>
-      <c r="M127" s="150"/>
-      <c r="N127" s="128"/>
+      <c r="L127" s="123"/>
+      <c r="M127" s="126"/>
+      <c r="N127" s="149"/>
       <c r="P127" s="14"/>
     </row>
     <row r="128" spans="1:16">
-      <c r="A128" s="145"/>
-      <c r="B128" s="132"/>
-      <c r="C128" s="133"/>
+      <c r="A128" s="166"/>
+      <c r="B128" s="153"/>
+      <c r="C128" s="154"/>
       <c r="D128" s="40" t="s">
         <v>402</v>
       </c>
@@ -9181,15 +9181,15 @@
       <c r="K128" s="52" t="s">
         <v>427</v>
       </c>
-      <c r="L128" s="159"/>
-      <c r="M128" s="150"/>
-      <c r="N128" s="128"/>
+      <c r="L128" s="123"/>
+      <c r="M128" s="126"/>
+      <c r="N128" s="149"/>
       <c r="P128" s="14"/>
     </row>
     <row r="129" spans="1:16">
-      <c r="A129" s="145"/>
-      <c r="B129" s="132"/>
-      <c r="C129" s="133"/>
+      <c r="A129" s="166"/>
+      <c r="B129" s="153"/>
+      <c r="C129" s="154"/>
       <c r="D129" s="40" t="s">
         <v>403</v>
       </c>
@@ -9214,15 +9214,15 @@
       <c r="K129" s="52" t="s">
         <v>426</v>
       </c>
-      <c r="L129" s="159"/>
-      <c r="M129" s="150"/>
-      <c r="N129" s="128"/>
+      <c r="L129" s="123"/>
+      <c r="M129" s="126"/>
+      <c r="N129" s="149"/>
       <c r="P129" s="14"/>
     </row>
     <row r="130" spans="1:16">
-      <c r="A130" s="145"/>
-      <c r="B130" s="132"/>
-      <c r="C130" s="133"/>
+      <c r="A130" s="166"/>
+      <c r="B130" s="153"/>
+      <c r="C130" s="154"/>
       <c r="D130" s="40" t="s">
         <v>404</v>
       </c>
@@ -9247,15 +9247,15 @@
       <c r="K130" s="52" t="s">
         <v>426</v>
       </c>
-      <c r="L130" s="159"/>
-      <c r="M130" s="150"/>
-      <c r="N130" s="128"/>
+      <c r="L130" s="123"/>
+      <c r="M130" s="126"/>
+      <c r="N130" s="149"/>
       <c r="P130" s="14"/>
     </row>
     <row r="131" spans="1:16">
-      <c r="A131" s="145"/>
-      <c r="B131" s="132"/>
-      <c r="C131" s="133"/>
+      <c r="A131" s="166"/>
+      <c r="B131" s="153"/>
+      <c r="C131" s="154"/>
       <c r="D131" s="40" t="s">
         <v>405</v>
       </c>
@@ -9280,15 +9280,15 @@
       <c r="K131" s="52" t="s">
         <v>484</v>
       </c>
-      <c r="L131" s="159"/>
-      <c r="M131" s="150"/>
-      <c r="N131" s="128"/>
+      <c r="L131" s="123"/>
+      <c r="M131" s="126"/>
+      <c r="N131" s="149"/>
       <c r="P131" s="14"/>
     </row>
     <row r="132" spans="1:16">
-      <c r="A132" s="145"/>
-      <c r="B132" s="134"/>
-      <c r="C132" s="135"/>
+      <c r="A132" s="166"/>
+      <c r="B132" s="155"/>
+      <c r="C132" s="156"/>
       <c r="D132" s="41" t="s">
         <v>406</v>
       </c>
@@ -9313,9 +9313,9 @@
       <c r="K132" s="53" t="s">
         <v>484</v>
       </c>
-      <c r="L132" s="160"/>
-      <c r="M132" s="151"/>
-      <c r="N132" s="129"/>
+      <c r="L132" s="124"/>
+      <c r="M132" s="127"/>
+      <c r="N132" s="150"/>
       <c r="P132" s="14"/>
     </row>
     <row r="133" spans="1:16">
@@ -9372,75 +9372,13 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="L113:L132"/>
-    <mergeCell ref="M113:M132"/>
-    <mergeCell ref="L86:L93"/>
-    <mergeCell ref="M86:M93"/>
-    <mergeCell ref="L94:L98"/>
-    <mergeCell ref="M94:M98"/>
-    <mergeCell ref="L99:L112"/>
-    <mergeCell ref="M99:M112"/>
-    <mergeCell ref="L75:L77"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="L82:L85"/>
-    <mergeCell ref="M82:M85"/>
-    <mergeCell ref="L56:L59"/>
-    <mergeCell ref="L60:L67"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="L48:L52"/>
-    <mergeCell ref="M48:M52"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="L26:L33"/>
-    <mergeCell ref="M26:M33"/>
-    <mergeCell ref="L34:L41"/>
-    <mergeCell ref="M34:M41"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="L18:L25"/>
-    <mergeCell ref="M18:M25"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="L3:L8"/>
-    <mergeCell ref="M3:M8"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="N3:N8"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="N56:N59"/>
-    <mergeCell ref="N60:N67"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="N26:N33"/>
-    <mergeCell ref="N34:N41"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="N44:N46"/>
-    <mergeCell ref="N48:N52"/>
-    <mergeCell ref="M75:M77"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="M56:M59"/>
-    <mergeCell ref="M60:M67"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="A3:A81"/>
-    <mergeCell ref="N80:N81"/>
-    <mergeCell ref="N18:N25"/>
-    <mergeCell ref="N75:N77"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C48:C68"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="N86:N93"/>
+    <mergeCell ref="A86:A132"/>
+    <mergeCell ref="B86:C93"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="C26:C47"/>
+    <mergeCell ref="B14:B78"/>
     <mergeCell ref="C69:C77"/>
     <mergeCell ref="C79:C81"/>
     <mergeCell ref="N94:N98"/>
@@ -9450,13 +9388,75 @@
     <mergeCell ref="B82:B85"/>
     <mergeCell ref="C82:C85"/>
     <mergeCell ref="N82:N85"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="N86:N93"/>
-    <mergeCell ref="A86:A132"/>
-    <mergeCell ref="B86:C93"/>
-    <mergeCell ref="C14:C25"/>
-    <mergeCell ref="C26:C47"/>
-    <mergeCell ref="B14:B78"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="N26:N33"/>
+    <mergeCell ref="N34:N41"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="N48:N52"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="N56:N59"/>
+    <mergeCell ref="N60:N67"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="N18:N25"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="L3:L8"/>
+    <mergeCell ref="M3:M8"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="N3:N8"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="A3:A81"/>
+    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="N75:N77"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C48:C68"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="L18:L25"/>
+    <mergeCell ref="M18:M25"/>
+    <mergeCell ref="L26:L33"/>
+    <mergeCell ref="M26:M33"/>
+    <mergeCell ref="L34:L41"/>
+    <mergeCell ref="M34:M41"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="L48:L52"/>
+    <mergeCell ref="M48:M52"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="L56:L59"/>
+    <mergeCell ref="L60:L67"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="M56:M59"/>
+    <mergeCell ref="M60:M67"/>
+    <mergeCell ref="L75:L77"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="L82:L85"/>
+    <mergeCell ref="M82:M85"/>
+    <mergeCell ref="M75:M77"/>
+    <mergeCell ref="L113:L132"/>
+    <mergeCell ref="M113:M132"/>
+    <mergeCell ref="L86:L93"/>
+    <mergeCell ref="M86:M93"/>
+    <mergeCell ref="L94:L98"/>
+    <mergeCell ref="M94:M98"/>
+    <mergeCell ref="L99:L112"/>
+    <mergeCell ref="M99:M112"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
@@ -9528,24 +9528,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="128" t="s">
         <v>439</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="204"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="120"/>
       <c r="Q1" s="58"/>
       <c r="R1" s="58"/>
     </row>
@@ -9553,10 +9553,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="195"/>
+      <c r="C2" s="177"/>
       <c r="D2" s="22" t="s">
         <v>24</v>
       </c>
@@ -9595,13 +9595,13 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="139" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="73" t="s">
@@ -9631,20 +9631,20 @@
       <c r="L3" s="76" t="s">
         <v>453</v>
       </c>
-      <c r="M3" s="166">
+      <c r="M3" s="170">
         <v>40197</v>
       </c>
-      <c r="N3" s="149" t="s">
+      <c r="N3" s="125" t="s">
         <v>441</v>
       </c>
-      <c r="O3" s="171" t="s">
+      <c r="O3" s="175" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="182"/>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
+      <c r="A4" s="189"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
       <c r="D4" s="77" t="s">
         <v>447</v>
       </c>
@@ -9672,14 +9672,14 @@
       <c r="L4" s="80" t="s">
         <v>453</v>
       </c>
-      <c r="M4" s="167"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="172"/>
+      <c r="M4" s="172"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="178"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="182"/>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
+      <c r="A5" s="189"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
       <c r="D5" s="81" t="s">
         <v>447</v>
       </c>
@@ -9707,14 +9707,14 @@
       <c r="L5" s="84" t="s">
         <v>453</v>
       </c>
-      <c r="M5" s="168"/>
-      <c r="N5" s="151"/>
-      <c r="O5" s="172"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="178"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="182"/>
-      <c r="B6" s="153"/>
-      <c r="C6" s="154"/>
+      <c r="A6" s="189"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="137"/>
       <c r="D6" s="82" t="s">
         <v>458</v>
       </c>
@@ -9756,9 +9756,9 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="182"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="152" t="s">
+      <c r="A7" s="189"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="139" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="82" t="s">
@@ -9802,9 +9802,9 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="182"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
       <c r="D8" s="73" t="s">
         <v>959</v>
       </c>
@@ -9832,20 +9832,20 @@
       <c r="L8" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="166">
+      <c r="M8" s="170">
         <v>43978</v>
       </c>
-      <c r="N8" s="149" t="s">
+      <c r="N8" s="125" t="s">
         <v>965</v>
       </c>
-      <c r="O8" s="171" t="s">
+      <c r="O8" s="175" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="182"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="153"/>
+      <c r="A9" s="189"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
       <c r="D9" s="77" t="s">
         <v>967</v>
       </c>
@@ -9873,14 +9873,14 @@
       <c r="L9" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="167"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="172"/>
+      <c r="M9" s="172"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="178"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="182"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
+      <c r="A10" s="189"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="136"/>
       <c r="D10" s="77" t="s">
         <v>970</v>
       </c>
@@ -9906,14 +9906,14 @@
         <v>973</v>
       </c>
       <c r="L10" s="80"/>
-      <c r="M10" s="167"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="172"/>
+      <c r="M10" s="172"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="178"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="182"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
+      <c r="A11" s="189"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
       <c r="D11" s="86" t="s">
         <v>974</v>
       </c>
@@ -9939,16 +9939,16 @@
         <v>973</v>
       </c>
       <c r="L11" s="87"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="150"/>
-      <c r="O11" s="172"/>
+      <c r="M11" s="172"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="178"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="62"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="182"/>
-      <c r="B12" s="153"/>
-      <c r="C12" s="153"/>
+      <c r="A12" s="189"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="136"/>
       <c r="D12" s="86" t="s">
         <v>977</v>
       </c>
@@ -9976,16 +9976,16 @@
       <c r="L12" s="87" t="s">
         <v>484</v>
       </c>
-      <c r="M12" s="167"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="172"/>
+      <c r="M12" s="172"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="178"/>
       <c r="Q12" s="60"/>
       <c r="R12" s="61"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="182"/>
-      <c r="B13" s="153"/>
-      <c r="C13" s="153"/>
+      <c r="A13" s="189"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="136"/>
       <c r="D13" s="86" t="s">
         <v>980</v>
       </c>
@@ -10013,16 +10013,16 @@
       <c r="L13" s="87" t="s">
         <v>984</v>
       </c>
-      <c r="M13" s="167"/>
-      <c r="N13" s="150"/>
-      <c r="O13" s="172"/>
+      <c r="M13" s="172"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="178"/>
       <c r="Q13" s="60"/>
       <c r="R13" s="61"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="182"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
+      <c r="A14" s="189"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
       <c r="D14" s="88" t="s">
         <v>985</v>
       </c>
@@ -10050,16 +10050,16 @@
       <c r="L14" s="90" t="s">
         <v>984</v>
       </c>
-      <c r="M14" s="168"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="173"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="176"/>
       <c r="Q14" s="60"/>
       <c r="R14" s="61"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="182"/>
-      <c r="B15" s="153"/>
-      <c r="C15" s="153"/>
+      <c r="A15" s="189"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
       <c r="D15" s="96" t="s">
         <v>988</v>
       </c>
@@ -10102,9 +10102,9 @@
       <c r="R15" s="61"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="182"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
+      <c r="A16" s="189"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
       <c r="D16" s="78" t="s">
         <v>997</v>
       </c>
@@ -10132,20 +10132,20 @@
       <c r="L16" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="166">
+      <c r="M16" s="170">
         <v>43606</v>
       </c>
-      <c r="N16" s="169" t="s">
+      <c r="N16" s="190" t="s">
         <v>1002</v>
       </c>
-      <c r="O16" s="171" t="s">
+      <c r="O16" s="175" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="182"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="153"/>
+      <c r="A17" s="189"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
       <c r="D17" s="85" t="s">
         <v>1004</v>
       </c>
@@ -10173,16 +10173,16 @@
       <c r="L17" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="M17" s="167"/>
-      <c r="N17" s="205"/>
-      <c r="O17" s="172"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="191"/>
+      <c r="O17" s="178"/>
       <c r="Q17" s="60"/>
       <c r="R17" s="61"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="182"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="153"/>
+      <c r="A18" s="189"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
       <c r="D18" s="85" t="s">
         <v>1007</v>
       </c>
@@ -10210,16 +10210,16 @@
       <c r="L18" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="M18" s="167"/>
-      <c r="N18" s="205"/>
-      <c r="O18" s="172"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="191"/>
+      <c r="O18" s="178"/>
       <c r="Q18" s="60"/>
       <c r="R18" s="61"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="182"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
+      <c r="A19" s="189"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
       <c r="D19" s="78" t="s">
         <v>1010</v>
       </c>
@@ -10247,13 +10247,13 @@
       <c r="L19" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="M19" s="168"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="173"/>
+      <c r="M19" s="171"/>
+      <c r="N19" s="192"/>
+      <c r="O19" s="176"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="182"/>
-      <c r="B20" s="152" t="s">
+      <c r="A20" s="189"/>
+      <c r="B20" s="139" t="s">
         <v>69</v>
       </c>
       <c r="C20" s="24" t="s">
@@ -10301,9 +10301,9 @@
       <c r="R20" s="62"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="182"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="152" t="s">
+      <c r="A21" s="189"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="139" t="s">
         <v>99</v>
       </c>
       <c r="D21" s="36" t="s">
@@ -10333,20 +10333,20 @@
       <c r="L21" s="51" t="s">
         <v>453</v>
       </c>
-      <c r="M21" s="166">
+      <c r="M21" s="170">
         <v>40197</v>
       </c>
-      <c r="N21" s="149" t="s">
+      <c r="N21" s="125" t="s">
         <v>441</v>
       </c>
-      <c r="O21" s="171" t="s">
+      <c r="O21" s="175" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="182"/>
-      <c r="B22" s="153"/>
-      <c r="C22" s="153"/>
+      <c r="A22" s="189"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="136"/>
       <c r="D22" s="37" t="s">
         <v>474</v>
       </c>
@@ -10374,14 +10374,14 @@
       <c r="L22" s="53" t="s">
         <v>453</v>
       </c>
-      <c r="M22" s="168"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="173"/>
+      <c r="M22" s="171"/>
+      <c r="N22" s="127"/>
+      <c r="O22" s="176"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="182"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="153"/>
+      <c r="A23" s="189"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="136"/>
       <c r="D23" s="38" t="s">
         <v>479</v>
       </c>
@@ -10424,9 +10424,9 @@
       <c r="R23" s="61"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="182"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="153"/>
+      <c r="A24" s="189"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="136"/>
       <c r="D24" s="35" t="s">
         <v>490</v>
       </c>
@@ -10454,22 +10454,22 @@
       <c r="L24" s="35" t="s">
         <v>499</v>
       </c>
-      <c r="M24" s="166">
+      <c r="M24" s="170">
         <v>42132</v>
       </c>
-      <c r="N24" s="149" t="s">
+      <c r="N24" s="125" t="s">
         <v>487</v>
       </c>
-      <c r="O24" s="171" t="s">
+      <c r="O24" s="175" t="s">
         <v>486</v>
       </c>
       <c r="Q24" s="60"/>
       <c r="R24" s="61"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="182"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
+      <c r="A25" s="189"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="37" t="s">
         <v>491</v>
       </c>
@@ -10497,16 +10497,16 @@
       <c r="L25" s="37" t="s">
         <v>453</v>
       </c>
-      <c r="M25" s="168"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="173"/>
+      <c r="M25" s="171"/>
+      <c r="N25" s="127"/>
+      <c r="O25" s="176"/>
       <c r="Q25" s="60"/>
       <c r="R25" s="61"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="182"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="154"/>
+      <c r="A26" s="189"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="137"/>
       <c r="D26" s="38" t="s">
         <v>503</v>
       </c>
@@ -10549,8 +10549,8 @@
       <c r="R26" s="61"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="182"/>
-      <c r="B27" s="153"/>
+      <c r="A27" s="189"/>
+      <c r="B27" s="136"/>
       <c r="C27" s="103" t="s">
         <v>180</v>
       </c>
@@ -10595,9 +10595,9 @@
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="182"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="152" t="s">
+      <c r="A28" s="189"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="139" t="s">
         <v>233</v>
       </c>
       <c r="D28" s="35" t="s">
@@ -10627,22 +10627,22 @@
       <c r="L28" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="M28" s="166">
+      <c r="M28" s="170">
         <v>40197</v>
       </c>
-      <c r="N28" s="149" t="s">
+      <c r="N28" s="125" t="s">
         <v>441</v>
       </c>
-      <c r="O28" s="171" t="s">
+      <c r="O28" s="175" t="s">
         <v>440</v>
       </c>
       <c r="Q28" s="21"/>
       <c r="R28" s="62"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="182"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
+      <c r="A29" s="189"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
       <c r="D29" s="35" t="s">
         <v>516</v>
       </c>
@@ -10670,16 +10670,16 @@
       <c r="L29" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="M29" s="168"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="173"/>
+      <c r="M29" s="171"/>
+      <c r="N29" s="127"/>
+      <c r="O29" s="176"/>
       <c r="Q29" s="50"/>
       <c r="R29" s="61"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="182"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="153"/>
+      <c r="A30" s="189"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="136"/>
       <c r="D30" s="36" t="s">
         <v>521</v>
       </c>
@@ -10707,20 +10707,20 @@
       <c r="L30" s="32" t="s">
         <v>590</v>
       </c>
-      <c r="M30" s="166">
+      <c r="M30" s="170">
         <v>40816</v>
       </c>
-      <c r="N30" s="149" t="s">
+      <c r="N30" s="125" t="s">
         <v>518</v>
       </c>
-      <c r="O30" s="171" t="s">
+      <c r="O30" s="175" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="182"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="153"/>
+      <c r="A31" s="189"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
       <c r="D31" s="35" t="s">
         <v>521</v>
       </c>
@@ -10748,14 +10748,14 @@
       <c r="L31" s="26" t="s">
         <v>590</v>
       </c>
-      <c r="M31" s="167"/>
-      <c r="N31" s="150"/>
-      <c r="O31" s="172"/>
+      <c r="M31" s="172"/>
+      <c r="N31" s="126"/>
+      <c r="O31" s="178"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="182"/>
-      <c r="B32" s="153"/>
-      <c r="C32" s="153"/>
+      <c r="A32" s="189"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="136"/>
       <c r="D32" s="35" t="s">
         <v>522</v>
       </c>
@@ -10783,16 +10783,16 @@
       <c r="L32" s="26" t="s">
         <v>590</v>
       </c>
-      <c r="M32" s="167"/>
-      <c r="N32" s="150"/>
-      <c r="O32" s="172"/>
+      <c r="M32" s="172"/>
+      <c r="N32" s="126"/>
+      <c r="O32" s="178"/>
       <c r="Q32" s="60"/>
       <c r="R32" s="61"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="182"/>
-      <c r="B33" s="153"/>
-      <c r="C33" s="153"/>
+      <c r="A33" s="189"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="136"/>
       <c r="D33" s="37" t="s">
         <v>522</v>
       </c>
@@ -10820,16 +10820,16 @@
       <c r="L33" s="26" t="s">
         <v>590</v>
       </c>
-      <c r="M33" s="168"/>
-      <c r="N33" s="151"/>
-      <c r="O33" s="173"/>
+      <c r="M33" s="171"/>
+      <c r="N33" s="127"/>
+      <c r="O33" s="176"/>
       <c r="Q33" s="60"/>
       <c r="R33" s="61"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="182"/>
-      <c r="B34" s="153"/>
-      <c r="C34" s="153"/>
+      <c r="A34" s="189"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="136"/>
       <c r="D34" s="38" t="s">
         <v>532</v>
       </c>
@@ -10871,9 +10871,9 @@
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="182"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
+      <c r="A35" s="189"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="136"/>
       <c r="D35" s="36" t="s">
         <v>534</v>
       </c>
@@ -10901,20 +10901,20 @@
       <c r="L35" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="M35" s="166">
+      <c r="M35" s="170">
         <v>42132</v>
       </c>
-      <c r="N35" s="149" t="s">
+      <c r="N35" s="125" t="s">
         <v>487</v>
       </c>
-      <c r="O35" s="171" t="s">
+      <c r="O35" s="175" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="182"/>
-      <c r="B36" s="153"/>
-      <c r="C36" s="153"/>
+      <c r="A36" s="189"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="136"/>
       <c r="D36" s="37" t="s">
         <v>535</v>
       </c>
@@ -10942,14 +10942,14 @@
       <c r="L36" s="37" t="s">
         <v>453</v>
       </c>
-      <c r="M36" s="168"/>
-      <c r="N36" s="151"/>
-      <c r="O36" s="173"/>
+      <c r="M36" s="171"/>
+      <c r="N36" s="127"/>
+      <c r="O36" s="176"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="182"/>
-      <c r="B37" s="153"/>
-      <c r="C37" s="153"/>
+      <c r="A37" s="189"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="136"/>
       <c r="D37" s="38" t="s">
         <v>541</v>
       </c>
@@ -10991,9 +10991,9 @@
       </c>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="182"/>
-      <c r="B38" s="153"/>
-      <c r="C38" s="153"/>
+      <c r="A38" s="189"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="136"/>
       <c r="D38" s="38" t="s">
         <v>544</v>
       </c>
@@ -11035,9 +11035,9 @@
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="182"/>
-      <c r="B39" s="153"/>
-      <c r="C39" s="154"/>
+      <c r="A39" s="189"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="137"/>
       <c r="D39" s="38" t="s">
         <v>547</v>
       </c>
@@ -11077,9 +11077,9 @@
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="182"/>
-      <c r="B40" s="153"/>
-      <c r="C40" s="152" t="s">
+      <c r="A40" s="189"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="139" t="s">
         <v>255</v>
       </c>
       <c r="D40" s="99" t="s">
@@ -11123,9 +11123,9 @@
       </c>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="182"/>
-      <c r="B41" s="153"/>
-      <c r="C41" s="153"/>
+      <c r="A41" s="189"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
       <c r="D41" s="68" t="s">
         <v>557</v>
       </c>
@@ -11153,20 +11153,20 @@
       <c r="L41" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="M41" s="158">
+      <c r="M41" s="122">
         <v>42345</v>
       </c>
-      <c r="N41" s="149" t="s">
+      <c r="N41" s="125" t="s">
         <v>487</v>
       </c>
-      <c r="O41" s="186" t="s">
+      <c r="O41" s="182" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="182"/>
-      <c r="B42" s="154"/>
-      <c r="C42" s="154"/>
+      <c r="A42" s="189"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
       <c r="D42" s="72" t="s">
         <v>558</v>
       </c>
@@ -11194,16 +11194,16 @@
       <c r="L42" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="M42" s="160"/>
-      <c r="N42" s="151"/>
-      <c r="O42" s="187"/>
+      <c r="M42" s="124"/>
+      <c r="N42" s="127"/>
+      <c r="O42" s="183"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="182"/>
-      <c r="B43" s="152" t="s">
+      <c r="A43" s="189"/>
+      <c r="B43" s="139" t="s">
         <v>1028</v>
       </c>
-      <c r="C43" s="152" t="s">
+      <c r="C43" s="139" t="s">
         <v>933</v>
       </c>
       <c r="D43" s="31" t="s">
@@ -11233,20 +11233,20 @@
       <c r="L43" s="33" t="s">
         <v>1018</v>
       </c>
-      <c r="M43" s="188">
+      <c r="M43" s="167">
         <v>43279</v>
       </c>
-      <c r="N43" s="191" t="s">
+      <c r="N43" s="184" t="s">
         <v>1019</v>
       </c>
-      <c r="O43" s="124" t="s">
+      <c r="O43" s="129" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="182"/>
-      <c r="B44" s="153"/>
-      <c r="C44" s="153"/>
+      <c r="A44" s="189"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="136"/>
       <c r="D44" s="25" t="s">
         <v>1021</v>
       </c>
@@ -11274,14 +11274,14 @@
       <c r="L44" s="27" t="s">
         <v>1018</v>
       </c>
-      <c r="M44" s="189"/>
-      <c r="N44" s="206"/>
-      <c r="O44" s="125"/>
+      <c r="M44" s="168"/>
+      <c r="N44" s="185"/>
+      <c r="O44" s="130"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="182"/>
-      <c r="B45" s="153"/>
-      <c r="C45" s="153"/>
+      <c r="A45" s="189"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
       <c r="D45" s="25" t="s">
         <v>1024</v>
       </c>
@@ -11309,14 +11309,14 @@
       <c r="L45" s="27" t="s">
         <v>1018</v>
       </c>
-      <c r="M45" s="189"/>
-      <c r="N45" s="206"/>
-      <c r="O45" s="125"/>
+      <c r="M45" s="168"/>
+      <c r="N45" s="185"/>
+      <c r="O45" s="130"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="182"/>
-      <c r="B46" s="154"/>
-      <c r="C46" s="154"/>
+      <c r="A46" s="189"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="137"/>
       <c r="D46" s="28" t="s">
         <v>1026</v>
       </c>
@@ -11344,18 +11344,18 @@
       <c r="L46" s="30" t="s">
         <v>1018</v>
       </c>
-      <c r="M46" s="190"/>
-      <c r="N46" s="192"/>
-      <c r="O46" s="126"/>
+      <c r="M46" s="169"/>
+      <c r="N46" s="186"/>
+      <c r="O46" s="131"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="180" t="s">
+      <c r="A47" s="187" t="s">
+        <v>260</v>
+      </c>
+      <c r="B47" s="157" t="s">
         <v>259</v>
       </c>
-      <c r="B47" s="136" t="s">
-        <v>260</v>
-      </c>
-      <c r="C47" s="136" t="s">
+      <c r="C47" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D47" s="40" t="s">
@@ -11385,22 +11385,22 @@
       <c r="L47" s="27" t="s">
         <v>589</v>
       </c>
-      <c r="M47" s="158">
+      <c r="M47" s="122">
         <v>42190</v>
       </c>
-      <c r="N47" s="149" t="s">
+      <c r="N47" s="125" t="s">
         <v>563</v>
       </c>
-      <c r="O47" s="121" t="s">
+      <c r="O47" s="145" t="s">
         <v>564</v>
       </c>
       <c r="Q47" s="50"/>
       <c r="R47" s="61"/>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="180"/>
-      <c r="B48" s="137"/>
-      <c r="C48" s="137"/>
+      <c r="A48" s="187"/>
+      <c r="B48" s="158"/>
+      <c r="C48" s="158"/>
       <c r="D48" s="40" t="s">
         <v>573</v>
       </c>
@@ -11428,16 +11428,16 @@
       <c r="L48" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="M48" s="159"/>
-      <c r="N48" s="150"/>
-      <c r="O48" s="122"/>
+      <c r="M48" s="123"/>
+      <c r="N48" s="126"/>
+      <c r="O48" s="146"/>
       <c r="Q48" s="50"/>
       <c r="R48" s="61"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="180"/>
-      <c r="B49" s="137"/>
-      <c r="C49" s="137"/>
+      <c r="A49" s="187"/>
+      <c r="B49" s="158"/>
+      <c r="C49" s="158"/>
       <c r="D49" s="40" t="s">
         <v>574</v>
       </c>
@@ -11465,16 +11465,16 @@
       <c r="L49" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="M49" s="159"/>
-      <c r="N49" s="150"/>
-      <c r="O49" s="122"/>
+      <c r="M49" s="123"/>
+      <c r="N49" s="126"/>
+      <c r="O49" s="146"/>
       <c r="Q49" s="50"/>
       <c r="R49" s="61"/>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="180"/>
-      <c r="B50" s="137"/>
-      <c r="C50" s="137"/>
+      <c r="A50" s="187"/>
+      <c r="B50" s="158"/>
+      <c r="C50" s="158"/>
       <c r="D50" s="40" t="s">
         <v>575</v>
       </c>
@@ -11502,16 +11502,16 @@
       <c r="L50" s="52" t="s">
         <v>591</v>
       </c>
-      <c r="M50" s="159"/>
-      <c r="N50" s="150"/>
-      <c r="O50" s="122"/>
+      <c r="M50" s="123"/>
+      <c r="N50" s="126"/>
+      <c r="O50" s="146"/>
       <c r="Q50" s="50"/>
       <c r="R50" s="61"/>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="180"/>
-      <c r="B51" s="137"/>
-      <c r="C51" s="137"/>
+      <c r="A51" s="187"/>
+      <c r="B51" s="158"/>
+      <c r="C51" s="158"/>
       <c r="D51" s="40" t="s">
         <v>576</v>
       </c>
@@ -11539,14 +11539,14 @@
       <c r="L51" s="52" t="s">
         <v>591</v>
       </c>
-      <c r="M51" s="159"/>
-      <c r="N51" s="150"/>
-      <c r="O51" s="122"/>
+      <c r="M51" s="123"/>
+      <c r="N51" s="126"/>
+      <c r="O51" s="146"/>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="180"/>
-      <c r="B52" s="137"/>
-      <c r="C52" s="137"/>
+      <c r="A52" s="187"/>
+      <c r="B52" s="158"/>
+      <c r="C52" s="158"/>
       <c r="D52" s="40" t="s">
         <v>577</v>
       </c>
@@ -11574,16 +11574,16 @@
       <c r="L52" s="52" t="s">
         <v>592</v>
       </c>
-      <c r="M52" s="159"/>
-      <c r="N52" s="150"/>
-      <c r="O52" s="122"/>
+      <c r="M52" s="123"/>
+      <c r="N52" s="126"/>
+      <c r="O52" s="146"/>
       <c r="Q52" s="60"/>
       <c r="R52" s="105"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="180"/>
-      <c r="B53" s="138"/>
-      <c r="C53" s="138"/>
+      <c r="A53" s="187"/>
+      <c r="B53" s="159"/>
+      <c r="C53" s="159"/>
       <c r="D53" s="41" t="s">
         <v>578</v>
       </c>
@@ -11611,20 +11611,20 @@
       <c r="L53" s="53" t="s">
         <v>592</v>
       </c>
-      <c r="M53" s="160"/>
-      <c r="N53" s="151"/>
-      <c r="O53" s="123"/>
+      <c r="M53" s="124"/>
+      <c r="N53" s="127"/>
+      <c r="O53" s="147"/>
       <c r="Q53" s="60"/>
       <c r="R53" s="105"/>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="193" t="s">
+      <c r="A54" s="173" t="s">
         <v>594</v>
       </c>
-      <c r="B54" s="130" t="s">
+      <c r="B54" s="151" t="s">
         <v>870</v>
       </c>
-      <c r="C54" s="131"/>
+      <c r="C54" s="152"/>
       <c r="D54" s="35" t="s">
         <v>601</v>
       </c>
@@ -11652,22 +11652,22 @@
       <c r="L54" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="M54" s="158">
+      <c r="M54" s="122">
         <v>42634</v>
       </c>
-      <c r="N54" s="149" t="s">
+      <c r="N54" s="125" t="s">
         <v>616</v>
       </c>
-      <c r="O54" s="183" t="s">
+      <c r="O54" s="179" t="s">
         <v>617</v>
       </c>
       <c r="Q54" s="50"/>
       <c r="R54" s="61"/>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="193"/>
-      <c r="B55" s="132"/>
-      <c r="C55" s="133"/>
+      <c r="A55" s="173"/>
+      <c r="B55" s="153"/>
+      <c r="C55" s="154"/>
       <c r="D55" s="35" t="s">
         <v>602</v>
       </c>
@@ -11695,16 +11695,16 @@
       <c r="L55" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="M55" s="159"/>
-      <c r="N55" s="150"/>
-      <c r="O55" s="184"/>
+      <c r="M55" s="123"/>
+      <c r="N55" s="126"/>
+      <c r="O55" s="180"/>
       <c r="Q55" s="50"/>
       <c r="R55" s="61"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="193"/>
-      <c r="B56" s="132"/>
-      <c r="C56" s="133"/>
+      <c r="A56" s="173"/>
+      <c r="B56" s="153"/>
+      <c r="C56" s="154"/>
       <c r="D56" s="35" t="s">
         <v>603</v>
       </c>
@@ -11732,16 +11732,16 @@
       <c r="L56" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="M56" s="159"/>
-      <c r="N56" s="150"/>
-      <c r="O56" s="184"/>
+      <c r="M56" s="123"/>
+      <c r="N56" s="126"/>
+      <c r="O56" s="180"/>
       <c r="Q56" s="50"/>
       <c r="R56" s="61"/>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="193"/>
-      <c r="B57" s="132"/>
-      <c r="C57" s="133"/>
+      <c r="A57" s="173"/>
+      <c r="B57" s="153"/>
+      <c r="C57" s="154"/>
       <c r="D57" s="35" t="s">
         <v>604</v>
       </c>
@@ -11769,16 +11769,16 @@
       <c r="L57" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="M57" s="159"/>
-      <c r="N57" s="150"/>
-      <c r="O57" s="184"/>
+      <c r="M57" s="123"/>
+      <c r="N57" s="126"/>
+      <c r="O57" s="180"/>
       <c r="Q57" s="50"/>
       <c r="R57" s="61"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="193"/>
-      <c r="B58" s="132"/>
-      <c r="C58" s="133"/>
+      <c r="A58" s="173"/>
+      <c r="B58" s="153"/>
+      <c r="C58" s="154"/>
       <c r="D58" s="35" t="s">
         <v>605</v>
       </c>
@@ -11806,14 +11806,14 @@
       <c r="L58" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="M58" s="159"/>
-      <c r="N58" s="150"/>
-      <c r="O58" s="184"/>
+      <c r="M58" s="123"/>
+      <c r="N58" s="126"/>
+      <c r="O58" s="180"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="193"/>
-      <c r="B59" s="134"/>
-      <c r="C59" s="135"/>
+      <c r="A59" s="173"/>
+      <c r="B59" s="155"/>
+      <c r="C59" s="156"/>
       <c r="D59" s="37" t="s">
         <v>606</v>
       </c>
@@ -11841,16 +11841,16 @@
       <c r="L59" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="M59" s="160"/>
-      <c r="N59" s="151"/>
-      <c r="O59" s="185"/>
+      <c r="M59" s="124"/>
+      <c r="N59" s="127"/>
+      <c r="O59" s="181"/>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="193"/>
-      <c r="B60" s="174" t="s">
+      <c r="A60" s="173"/>
+      <c r="B60" s="193" t="s">
         <v>310</v>
       </c>
-      <c r="C60" s="175"/>
+      <c r="C60" s="194"/>
       <c r="D60" s="36" t="s">
         <v>624</v>
       </c>
@@ -11878,20 +11878,20 @@
       <c r="L60" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="M60" s="158">
+      <c r="M60" s="122">
         <v>40869</v>
       </c>
-      <c r="N60" s="149" t="s">
+      <c r="N60" s="125" t="s">
         <v>466</v>
       </c>
-      <c r="O60" s="124" t="s">
+      <c r="O60" s="129" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="193"/>
-      <c r="B61" s="176"/>
-      <c r="C61" s="177"/>
+      <c r="A61" s="173"/>
+      <c r="B61" s="195"/>
+      <c r="C61" s="196"/>
       <c r="D61" s="35" t="s">
         <v>624</v>
       </c>
@@ -11919,14 +11919,14 @@
       <c r="L61" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="M61" s="159"/>
-      <c r="N61" s="150"/>
-      <c r="O61" s="125"/>
+      <c r="M61" s="123"/>
+      <c r="N61" s="126"/>
+      <c r="O61" s="130"/>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="193"/>
-      <c r="B62" s="176"/>
-      <c r="C62" s="177"/>
+      <c r="A62" s="173"/>
+      <c r="B62" s="195"/>
+      <c r="C62" s="196"/>
       <c r="D62" s="35" t="s">
         <v>624</v>
       </c>
@@ -11954,14 +11954,14 @@
       <c r="L62" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="M62" s="159"/>
-      <c r="N62" s="150"/>
-      <c r="O62" s="125"/>
+      <c r="M62" s="123"/>
+      <c r="N62" s="126"/>
+      <c r="O62" s="130"/>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="193"/>
-      <c r="B63" s="176"/>
-      <c r="C63" s="177"/>
+      <c r="A63" s="173"/>
+      <c r="B63" s="195"/>
+      <c r="C63" s="196"/>
       <c r="D63" s="35" t="s">
         <v>625</v>
       </c>
@@ -11989,14 +11989,14 @@
       <c r="L63" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="M63" s="159"/>
-      <c r="N63" s="150"/>
-      <c r="O63" s="125"/>
+      <c r="M63" s="123"/>
+      <c r="N63" s="126"/>
+      <c r="O63" s="130"/>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="193"/>
-      <c r="B64" s="176"/>
-      <c r="C64" s="177"/>
+      <c r="A64" s="173"/>
+      <c r="B64" s="195"/>
+      <c r="C64" s="196"/>
       <c r="D64" s="35" t="s">
         <v>625</v>
       </c>
@@ -12024,14 +12024,14 @@
       <c r="L64" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="M64" s="159"/>
-      <c r="N64" s="150"/>
-      <c r="O64" s="125"/>
+      <c r="M64" s="123"/>
+      <c r="N64" s="126"/>
+      <c r="O64" s="130"/>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="194"/>
-      <c r="B65" s="178"/>
-      <c r="C65" s="179"/>
+      <c r="A65" s="174"/>
+      <c r="B65" s="197"/>
+      <c r="C65" s="198"/>
       <c r="D65" s="37" t="s">
         <v>625</v>
       </c>
@@ -12059,9 +12059,9 @@
       <c r="L65" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="M65" s="160"/>
-      <c r="N65" s="151"/>
-      <c r="O65" s="126"/>
+      <c r="M65" s="124"/>
+      <c r="N65" s="127"/>
+      <c r="O65" s="131"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="6"/>
@@ -12096,20 +12096,31 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="M43:M46"/>
-    <mergeCell ref="M47:M53"/>
-    <mergeCell ref="M54:M59"/>
-    <mergeCell ref="M60:M65"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="M8:M14"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="N47:N53"/>
+    <mergeCell ref="O47:O53"/>
+    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="A3:A46"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="O8:O14"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="C28:C39"/>
+    <mergeCell ref="B20:B42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="N43:N46"/>
+    <mergeCell ref="N60:N65"/>
+    <mergeCell ref="O60:O65"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="B60:C65"/>
+    <mergeCell ref="B54:C59"/>
     <mergeCell ref="A54:A65"/>
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="O24:O25"/>
@@ -12126,33 +12137,22 @@
     <mergeCell ref="O43:O46"/>
     <mergeCell ref="N54:N59"/>
     <mergeCell ref="O54:O59"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="N43:N46"/>
-    <mergeCell ref="N60:N65"/>
-    <mergeCell ref="O60:O65"/>
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="N47:N53"/>
-    <mergeCell ref="O47:O53"/>
-    <mergeCell ref="A47:A53"/>
-    <mergeCell ref="A3:A46"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="O8:O14"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="B60:C65"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="C28:C39"/>
-    <mergeCell ref="B20:B42"/>
-    <mergeCell ref="B54:C59"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="M8:M14"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="M21:M22"/>
     <mergeCell ref="N21:N22"/>
     <mergeCell ref="O21:O22"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="M43:M46"/>
+    <mergeCell ref="M47:M53"/>
+    <mergeCell ref="M54:M59"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M41:M42"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
@@ -12210,32 +12210,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.2" thickBot="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="202" t="s">
         <v>630</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="207"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="121"/>
     </row>
     <row r="2" spans="1:15" ht="16.2" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="195"/>
+      <c r="C2" s="177"/>
       <c r="D2" s="22" t="s">
         <v>24</v>
       </c>
@@ -12274,10 +12274,10 @@
       <c r="A3" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="139" t="s">
         <v>631</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="139" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="42" t="s">
@@ -12304,20 +12304,20 @@
       <c r="K3" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="158">
+      <c r="L3" s="122">
         <v>41437</v>
       </c>
-      <c r="M3" s="149" t="s">
+      <c r="M3" s="125" t="s">
         <v>632</v>
       </c>
-      <c r="N3" s="124" t="s">
+      <c r="N3" s="129" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="157"/>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
       <c r="D4" s="41" t="s">
         <v>638</v>
       </c>
@@ -12342,14 +12342,14 @@
       <c r="K4" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="126"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="131"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="157"/>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
+      <c r="A5" s="138"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
       <c r="D5" s="42" t="s">
         <v>651</v>
       </c>
@@ -12374,20 +12374,20 @@
       <c r="K5" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="158">
+      <c r="L5" s="122">
         <v>39920</v>
       </c>
-      <c r="M5" s="149" t="s">
+      <c r="M5" s="125" t="s">
         <v>645</v>
       </c>
-      <c r="N5" s="124" t="s">
+      <c r="N5" s="129" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="157"/>
-      <c r="B6" s="153"/>
-      <c r="C6" s="153"/>
+      <c r="A6" s="138"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="40" t="s">
         <v>651</v>
       </c>
@@ -12412,14 +12412,14 @@
       <c r="K6" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="159"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="125"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="130"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="157"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
+      <c r="A7" s="138"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
       <c r="D7" s="40" t="s">
         <v>652</v>
       </c>
@@ -12444,14 +12444,14 @@
       <c r="K7" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="159"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="125"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="130"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="157"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
+      <c r="A8" s="138"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
       <c r="D8" s="41" t="s">
         <v>652</v>
       </c>
@@ -12476,14 +12476,14 @@
       <c r="K8" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="160"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="126"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="131"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="157"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="153"/>
+      <c r="A9" s="138"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
       <c r="D9" s="42" t="s">
         <v>663</v>
       </c>
@@ -12508,20 +12508,20 @@
       <c r="K9" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="158">
+      <c r="L9" s="122">
         <v>42180</v>
       </c>
-      <c r="M9" s="149" t="s">
+      <c r="M9" s="125" t="s">
         <v>657</v>
       </c>
-      <c r="N9" s="124" t="s">
+      <c r="N9" s="129" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="157"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
+      <c r="A10" s="138"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="136"/>
       <c r="D10" s="40" t="s">
         <v>663</v>
       </c>
@@ -12546,14 +12546,14 @@
       <c r="K10" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="159"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="125"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="130"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="157"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
+      <c r="A11" s="138"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
       <c r="D11" s="40" t="s">
         <v>664</v>
       </c>
@@ -12578,14 +12578,14 @@
       <c r="K11" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="159"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="125"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="130"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="157"/>
-      <c r="B12" s="153"/>
-      <c r="C12" s="154"/>
+      <c r="A12" s="138"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="137"/>
       <c r="D12" s="41" t="s">
         <v>664</v>
       </c>
@@ -12610,14 +12610,14 @@
       <c r="K12" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="160"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="126"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="131"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="157"/>
-      <c r="B13" s="153"/>
-      <c r="C13" s="152" t="s">
+      <c r="A13" s="138"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="139" t="s">
         <v>68</v>
       </c>
       <c r="D13" s="36" t="s">
@@ -12644,20 +12644,20 @@
       <c r="K13" s="32" t="s">
         <v>484</v>
       </c>
-      <c r="L13" s="158">
+      <c r="L13" s="122">
         <v>43787</v>
       </c>
-      <c r="M13" s="149" t="s">
+      <c r="M13" s="125" t="s">
         <v>705</v>
       </c>
-      <c r="N13" s="124" t="s">
+      <c r="N13" s="129" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="157"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
+      <c r="A14" s="138"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
       <c r="D14" s="35" t="s">
         <v>677</v>
       </c>
@@ -12682,14 +12682,14 @@
       <c r="K14" s="26" t="s">
         <v>484</v>
       </c>
-      <c r="L14" s="159"/>
-      <c r="M14" s="150"/>
-      <c r="N14" s="125"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="130"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="157"/>
-      <c r="B15" s="153"/>
-      <c r="C15" s="153"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
       <c r="D15" s="35" t="s">
         <v>700</v>
       </c>
@@ -12714,14 +12714,14 @@
       <c r="K15" s="26" t="s">
         <v>484</v>
       </c>
-      <c r="L15" s="159"/>
-      <c r="M15" s="150"/>
-      <c r="N15" s="125"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="130"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="157"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
       <c r="D16" s="37" t="s">
         <v>701</v>
       </c>
@@ -12746,14 +12746,14 @@
       <c r="K16" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="L16" s="160"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="126"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="131"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="157"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="153"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
       <c r="D17" s="42" t="s">
         <v>678</v>
       </c>
@@ -12776,20 +12776,20 @@
         <v>950</v>
       </c>
       <c r="K17" s="33"/>
-      <c r="L17" s="158">
+      <c r="L17" s="122">
         <v>43073</v>
       </c>
-      <c r="M17" s="149" t="s">
+      <c r="M17" s="125" t="s">
         <v>712</v>
       </c>
-      <c r="N17" s="124" t="s">
+      <c r="N17" s="129" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="157"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="153"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
       <c r="D18" s="40" t="s">
         <v>679</v>
       </c>
@@ -12812,14 +12812,14 @@
         <v>950</v>
       </c>
       <c r="K18" s="27"/>
-      <c r="L18" s="159"/>
-      <c r="M18" s="150"/>
-      <c r="N18" s="125"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="130"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="157"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
       <c r="D19" s="41" t="s">
         <v>710</v>
       </c>
@@ -12842,14 +12842,14 @@
         <v>950</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="160"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="126"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="131"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="157"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="153"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
       <c r="D20" s="42" t="s">
         <v>680</v>
       </c>
@@ -12874,20 +12874,20 @@
       <c r="K20" s="33" t="s">
         <v>706</v>
       </c>
-      <c r="L20" s="158">
+      <c r="L20" s="122">
         <v>43630</v>
       </c>
-      <c r="M20" s="149" t="s">
+      <c r="M20" s="125" t="s">
         <v>707</v>
       </c>
-      <c r="N20" s="124" t="s">
+      <c r="N20" s="129" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="157"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="153"/>
+      <c r="A21" s="138"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
       <c r="D21" s="41" t="s">
         <v>681</v>
       </c>
@@ -12912,14 +12912,14 @@
       <c r="K21" s="30" t="s">
         <v>706</v>
       </c>
-      <c r="L21" s="160"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="126"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="131"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="157"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="154"/>
+      <c r="A22" s="138"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
       <c r="D22" s="99" t="s">
         <v>682</v>
       </c>
@@ -12953,8 +12953,8 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="157"/>
-      <c r="B23" s="152" t="s">
+      <c r="A23" s="138"/>
+      <c r="B23" s="139" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="24" t="s">
@@ -12993,9 +12993,9 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="157"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="152" t="s">
+      <c r="A24" s="138"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="139" t="s">
         <v>99</v>
       </c>
       <c r="D24" s="68" t="s">
@@ -13022,20 +13022,20 @@
       <c r="K24" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="158">
+      <c r="L24" s="122">
         <v>41437</v>
       </c>
-      <c r="M24" s="149" t="s">
+      <c r="M24" s="125" t="s">
         <v>632</v>
       </c>
-      <c r="N24" s="124" t="s">
+      <c r="N24" s="129" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="157"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
+      <c r="A25" s="138"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="72" t="s">
         <v>721</v>
       </c>
@@ -13060,14 +13060,14 @@
       <c r="K25" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="160"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="126"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="131"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="157"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="153"/>
+      <c r="A26" s="138"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="136"/>
       <c r="D26" s="42" t="s">
         <v>732</v>
       </c>
@@ -13092,20 +13092,20 @@
       <c r="K26" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="158">
+      <c r="L26" s="122">
         <v>43269</v>
       </c>
-      <c r="M26" s="149" t="s">
+      <c r="M26" s="125" t="s">
         <v>747</v>
       </c>
-      <c r="N26" s="124" t="s">
+      <c r="N26" s="129" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="157"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="153"/>
+      <c r="A27" s="138"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="136"/>
       <c r="D27" s="40" t="s">
         <v>733</v>
       </c>
@@ -13130,14 +13130,14 @@
       <c r="K27" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="159"/>
-      <c r="M27" s="150"/>
-      <c r="N27" s="125"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="130"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="157"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
+      <c r="A28" s="138"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="136"/>
       <c r="D28" s="40" t="s">
         <v>734</v>
       </c>
@@ -13162,14 +13162,14 @@
       <c r="K28" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L28" s="159"/>
-      <c r="M28" s="150"/>
-      <c r="N28" s="125"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="130"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="157"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
+      <c r="A29" s="138"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
       <c r="D29" s="40" t="s">
         <v>735</v>
       </c>
@@ -13194,14 +13194,14 @@
       <c r="K29" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L29" s="159"/>
-      <c r="M29" s="150"/>
-      <c r="N29" s="125"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="130"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="157"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="153"/>
+      <c r="A30" s="138"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="136"/>
       <c r="D30" s="40" t="s">
         <v>736</v>
       </c>
@@ -13226,14 +13226,14 @@
       <c r="K30" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L30" s="159"/>
-      <c r="M30" s="150"/>
-      <c r="N30" s="125"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="130"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="157"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="153"/>
+      <c r="A31" s="138"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
       <c r="D31" s="40" t="s">
         <v>737</v>
       </c>
@@ -13258,14 +13258,14 @@
       <c r="K31" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L31" s="159"/>
-      <c r="M31" s="150"/>
-      <c r="N31" s="125"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="130"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="157"/>
-      <c r="B32" s="153"/>
-      <c r="C32" s="153"/>
+      <c r="A32" s="138"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="136"/>
       <c r="D32" s="40" t="s">
         <v>738</v>
       </c>
@@ -13290,14 +13290,14 @@
       <c r="K32" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L32" s="159"/>
-      <c r="M32" s="150"/>
-      <c r="N32" s="125"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="130"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="157"/>
-      <c r="B33" s="153"/>
-      <c r="C33" s="153"/>
+      <c r="A33" s="138"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="136"/>
       <c r="D33" s="41" t="s">
         <v>739</v>
       </c>
@@ -13322,14 +13322,14 @@
       <c r="K33" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="160"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="126"/>
+      <c r="L33" s="124"/>
+      <c r="M33" s="127"/>
+      <c r="N33" s="131"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="157"/>
-      <c r="B34" s="153"/>
-      <c r="C34" s="153"/>
+      <c r="A34" s="138"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="136"/>
       <c r="D34" s="68" t="s">
         <v>753</v>
       </c>
@@ -13354,20 +13354,20 @@
       <c r="K34" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="158">
+      <c r="L34" s="122">
         <v>39920</v>
       </c>
-      <c r="M34" s="149" t="s">
+      <c r="M34" s="125" t="s">
         <v>645</v>
       </c>
-      <c r="N34" s="124" t="s">
+      <c r="N34" s="129" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="157"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
+      <c r="A35" s="138"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="136"/>
       <c r="D35" s="70" t="s">
         <v>753</v>
       </c>
@@ -13392,14 +13392,14 @@
       <c r="K35" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L35" s="159"/>
-      <c r="M35" s="150"/>
-      <c r="N35" s="125"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="126"/>
+      <c r="N35" s="130"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="157"/>
-      <c r="B36" s="153"/>
-      <c r="C36" s="153"/>
+      <c r="A36" s="138"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="136"/>
       <c r="D36" s="70" t="s">
         <v>754</v>
       </c>
@@ -13424,14 +13424,14 @@
       <c r="K36" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L36" s="159"/>
-      <c r="M36" s="150"/>
-      <c r="N36" s="125"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="130"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="157"/>
-      <c r="B37" s="153"/>
-      <c r="C37" s="153"/>
+      <c r="A37" s="138"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="136"/>
       <c r="D37" s="72" t="s">
         <v>754</v>
       </c>
@@ -13456,14 +13456,14 @@
       <c r="K37" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="L37" s="160"/>
-      <c r="M37" s="151"/>
-      <c r="N37" s="126"/>
+      <c r="L37" s="124"/>
+      <c r="M37" s="127"/>
+      <c r="N37" s="131"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="157"/>
-      <c r="B38" s="153"/>
-      <c r="C38" s="153"/>
+      <c r="A38" s="138"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="136"/>
       <c r="D38" s="109" t="s">
         <v>767</v>
       </c>
@@ -13488,14 +13488,14 @@
       <c r="K38" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="L38" s="200"/>
-      <c r="M38" s="191"/>
-      <c r="N38" s="124"/>
+      <c r="L38" s="199"/>
+      <c r="M38" s="184"/>
+      <c r="N38" s="129"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="157"/>
-      <c r="B39" s="153"/>
-      <c r="C39" s="153"/>
+      <c r="A39" s="138"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="136"/>
       <c r="D39" s="110" t="s">
         <v>768</v>
       </c>
@@ -13520,14 +13520,14 @@
       <c r="K39" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L39" s="161"/>
-      <c r="M39" s="206"/>
-      <c r="N39" s="125"/>
+      <c r="L39" s="200"/>
+      <c r="M39" s="185"/>
+      <c r="N39" s="130"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="157"/>
-      <c r="B40" s="153"/>
-      <c r="C40" s="153"/>
+      <c r="A40" s="138"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="136"/>
       <c r="D40" s="110" t="s">
         <v>769</v>
       </c>
@@ -13552,14 +13552,14 @@
       <c r="K40" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L40" s="161"/>
-      <c r="M40" s="206"/>
-      <c r="N40" s="125"/>
+      <c r="L40" s="200"/>
+      <c r="M40" s="185"/>
+      <c r="N40" s="130"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="157"/>
-      <c r="B41" s="153"/>
-      <c r="C41" s="153"/>
+      <c r="A41" s="138"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
       <c r="D41" s="110" t="s">
         <v>770</v>
       </c>
@@ -13584,14 +13584,14 @@
       <c r="K41" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L41" s="161"/>
-      <c r="M41" s="206"/>
-      <c r="N41" s="125"/>
+      <c r="L41" s="200"/>
+      <c r="M41" s="185"/>
+      <c r="N41" s="130"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="157"/>
-      <c r="B42" s="153"/>
-      <c r="C42" s="153"/>
+      <c r="A42" s="138"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="136"/>
       <c r="D42" s="110" t="s">
         <v>771</v>
       </c>
@@ -13616,14 +13616,14 @@
       <c r="K42" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L42" s="161"/>
-      <c r="M42" s="206"/>
-      <c r="N42" s="125"/>
+      <c r="L42" s="200"/>
+      <c r="M42" s="185"/>
+      <c r="N42" s="130"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="157"/>
-      <c r="B43" s="153"/>
-      <c r="C43" s="153"/>
+      <c r="A43" s="138"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="136"/>
       <c r="D43" s="110" t="s">
         <v>772</v>
       </c>
@@ -13648,14 +13648,14 @@
       <c r="K43" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L43" s="161"/>
-      <c r="M43" s="206"/>
-      <c r="N43" s="125"/>
+      <c r="L43" s="200"/>
+      <c r="M43" s="185"/>
+      <c r="N43" s="130"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="157"/>
-      <c r="B44" s="153"/>
-      <c r="C44" s="153"/>
+      <c r="A44" s="138"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="136"/>
       <c r="D44" s="110" t="s">
         <v>773</v>
       </c>
@@ -13680,14 +13680,14 @@
       <c r="K44" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L44" s="161"/>
-      <c r="M44" s="206"/>
-      <c r="N44" s="125"/>
+      <c r="L44" s="200"/>
+      <c r="M44" s="185"/>
+      <c r="N44" s="130"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="157"/>
-      <c r="B45" s="153"/>
-      <c r="C45" s="153"/>
+      <c r="A45" s="138"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
       <c r="D45" s="110" t="s">
         <v>774</v>
       </c>
@@ -13712,14 +13712,14 @@
       <c r="K45" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L45" s="161"/>
-      <c r="M45" s="206"/>
-      <c r="N45" s="125"/>
+      <c r="L45" s="200"/>
+      <c r="M45" s="185"/>
+      <c r="N45" s="130"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="157"/>
-      <c r="B46" s="153"/>
-      <c r="C46" s="153"/>
+      <c r="A46" s="138"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="136"/>
       <c r="D46" s="110" t="s">
         <v>775</v>
       </c>
@@ -13744,14 +13744,14 @@
       <c r="K46" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L46" s="161"/>
-      <c r="M46" s="206"/>
-      <c r="N46" s="125"/>
+      <c r="L46" s="200"/>
+      <c r="M46" s="185"/>
+      <c r="N46" s="130"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="157"/>
-      <c r="B47" s="153"/>
-      <c r="C47" s="153"/>
+      <c r="A47" s="138"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="136"/>
       <c r="D47" s="112" t="s">
         <v>776</v>
       </c>
@@ -13777,13 +13777,13 @@
         <v>49</v>
       </c>
       <c r="L47" s="201"/>
-      <c r="M47" s="192"/>
-      <c r="N47" s="126"/>
+      <c r="M47" s="186"/>
+      <c r="N47" s="131"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="157"/>
-      <c r="B48" s="153"/>
-      <c r="C48" s="153"/>
+      <c r="A48" s="138"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="136"/>
       <c r="D48" s="42" t="s">
         <v>787</v>
       </c>
@@ -13808,20 +13808,20 @@
       <c r="K48" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L48" s="158">
+      <c r="L48" s="122">
         <v>42180</v>
       </c>
-      <c r="M48" s="149" t="s">
+      <c r="M48" s="125" t="s">
         <v>657</v>
       </c>
-      <c r="N48" s="124" t="s">
+      <c r="N48" s="129" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="157"/>
-      <c r="B49" s="153"/>
-      <c r="C49" s="153"/>
+      <c r="A49" s="138"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="136"/>
       <c r="D49" s="40" t="s">
         <v>787</v>
       </c>
@@ -13846,14 +13846,14 @@
       <c r="K49" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="L49" s="159"/>
-      <c r="M49" s="150"/>
-      <c r="N49" s="125"/>
+      <c r="L49" s="123"/>
+      <c r="M49" s="126"/>
+      <c r="N49" s="130"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="157"/>
-      <c r="B50" s="153"/>
-      <c r="C50" s="153"/>
+      <c r="A50" s="138"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="136"/>
       <c r="D50" s="40" t="s">
         <v>788</v>
       </c>
@@ -13878,14 +13878,14 @@
       <c r="K50" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L50" s="159"/>
-      <c r="M50" s="150"/>
-      <c r="N50" s="125"/>
+      <c r="L50" s="123"/>
+      <c r="M50" s="126"/>
+      <c r="N50" s="130"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="157"/>
-      <c r="B51" s="153"/>
-      <c r="C51" s="154"/>
+      <c r="A51" s="138"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="137"/>
       <c r="D51" s="41" t="s">
         <v>788</v>
       </c>
@@ -13910,14 +13910,14 @@
       <c r="K51" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="L51" s="160"/>
-      <c r="M51" s="151"/>
-      <c r="N51" s="126"/>
+      <c r="L51" s="124"/>
+      <c r="M51" s="127"/>
+      <c r="N51" s="131"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="157"/>
-      <c r="B52" s="153"/>
-      <c r="C52" s="152" t="s">
+      <c r="A52" s="138"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="139" t="s">
         <v>180</v>
       </c>
       <c r="D52" s="42" t="s">
@@ -13944,20 +13944,20 @@
       <c r="K52" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L52" s="158">
+      <c r="L52" s="122">
         <v>41865</v>
       </c>
-      <c r="M52" s="149" t="s">
+      <c r="M52" s="125" t="s">
         <v>791</v>
       </c>
-      <c r="N52" s="124" t="s">
+      <c r="N52" s="129" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="157"/>
-      <c r="B53" s="153"/>
-      <c r="C53" s="153"/>
+      <c r="A53" s="138"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="136"/>
       <c r="D53" s="41" t="s">
         <v>796</v>
       </c>
@@ -13982,14 +13982,14 @@
       <c r="K53" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="L53" s="160"/>
-      <c r="M53" s="151"/>
-      <c r="N53" s="126"/>
+      <c r="L53" s="124"/>
+      <c r="M53" s="127"/>
+      <c r="N53" s="131"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="157"/>
-      <c r="B54" s="153"/>
-      <c r="C54" s="153"/>
+      <c r="A54" s="138"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="136"/>
       <c r="D54" s="42" t="s">
         <v>802</v>
       </c>
@@ -14014,20 +14014,20 @@
       <c r="K54" s="33" t="s">
         <v>808</v>
       </c>
-      <c r="L54" s="158">
+      <c r="L54" s="122">
         <v>41975</v>
       </c>
-      <c r="M54" s="149" t="s">
+      <c r="M54" s="125" t="s">
         <v>809</v>
       </c>
-      <c r="N54" s="124" t="s">
+      <c r="N54" s="129" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="157"/>
-      <c r="B55" s="153"/>
-      <c r="C55" s="154"/>
+      <c r="A55" s="138"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="137"/>
       <c r="D55" s="41" t="s">
         <v>803</v>
       </c>
@@ -14052,14 +14052,14 @@
       <c r="K55" s="53" t="s">
         <v>808</v>
       </c>
-      <c r="L55" s="160"/>
-      <c r="M55" s="151"/>
-      <c r="N55" s="126"/>
+      <c r="L55" s="124"/>
+      <c r="M55" s="127"/>
+      <c r="N55" s="131"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="157"/>
-      <c r="B56" s="153"/>
-      <c r="C56" s="152" t="s">
+      <c r="A56" s="138"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="139" t="s">
         <v>233</v>
       </c>
       <c r="D56" s="69" t="s">
@@ -14086,20 +14086,20 @@
       <c r="K56" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="L56" s="158">
+      <c r="L56" s="122">
         <v>39920</v>
       </c>
-      <c r="M56" s="149" t="s">
+      <c r="M56" s="125" t="s">
         <v>645</v>
       </c>
-      <c r="N56" s="124" t="s">
+      <c r="N56" s="129" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="157"/>
-      <c r="B57" s="153"/>
-      <c r="C57" s="153"/>
+      <c r="A57" s="138"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="136"/>
       <c r="D57" s="71" t="s">
         <v>815</v>
       </c>
@@ -14124,14 +14124,14 @@
       <c r="K57" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="L57" s="159"/>
-      <c r="M57" s="150"/>
-      <c r="N57" s="125"/>
+      <c r="L57" s="123"/>
+      <c r="M57" s="126"/>
+      <c r="N57" s="130"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="157"/>
-      <c r="B58" s="153"/>
-      <c r="C58" s="153"/>
+      <c r="A58" s="138"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="136"/>
       <c r="D58" s="71" t="s">
         <v>816</v>
       </c>
@@ -14156,14 +14156,14 @@
       <c r="K58" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="L58" s="159"/>
-      <c r="M58" s="150"/>
-      <c r="N58" s="125"/>
+      <c r="L58" s="123"/>
+      <c r="M58" s="126"/>
+      <c r="N58" s="130"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="157"/>
-      <c r="B59" s="153"/>
-      <c r="C59" s="153"/>
+      <c r="A59" s="138"/>
+      <c r="B59" s="136"/>
+      <c r="C59" s="136"/>
       <c r="D59" s="67" t="s">
         <v>816</v>
       </c>
@@ -14188,14 +14188,14 @@
       <c r="K59" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="L59" s="160"/>
-      <c r="M59" s="151"/>
-      <c r="N59" s="126"/>
+      <c r="L59" s="124"/>
+      <c r="M59" s="127"/>
+      <c r="N59" s="131"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="157"/>
-      <c r="B60" s="153"/>
-      <c r="C60" s="153"/>
+      <c r="A60" s="138"/>
+      <c r="B60" s="136"/>
+      <c r="C60" s="136"/>
       <c r="D60" s="42" t="s">
         <v>829</v>
       </c>
@@ -14220,14 +14220,14 @@
       <c r="K60" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="L60" s="200"/>
-      <c r="M60" s="191"/>
-      <c r="N60" s="124"/>
+      <c r="L60" s="199"/>
+      <c r="M60" s="184"/>
+      <c r="N60" s="129"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="157"/>
-      <c r="B61" s="153"/>
-      <c r="C61" s="153"/>
+      <c r="A61" s="138"/>
+      <c r="B61" s="136"/>
+      <c r="C61" s="136"/>
       <c r="D61" s="40" t="s">
         <v>830</v>
       </c>
@@ -14252,14 +14252,14 @@
       <c r="K61" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L61" s="161"/>
-      <c r="M61" s="206"/>
-      <c r="N61" s="125"/>
+      <c r="L61" s="200"/>
+      <c r="M61" s="185"/>
+      <c r="N61" s="130"/>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="157"/>
-      <c r="B62" s="153"/>
-      <c r="C62" s="153"/>
+      <c r="A62" s="138"/>
+      <c r="B62" s="136"/>
+      <c r="C62" s="136"/>
       <c r="D62" s="40" t="s">
         <v>831</v>
       </c>
@@ -14284,14 +14284,14 @@
       <c r="K62" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L62" s="161"/>
-      <c r="M62" s="206"/>
-      <c r="N62" s="125"/>
+      <c r="L62" s="200"/>
+      <c r="M62" s="185"/>
+      <c r="N62" s="130"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="157"/>
-      <c r="B63" s="153"/>
-      <c r="C63" s="153"/>
+      <c r="A63" s="138"/>
+      <c r="B63" s="136"/>
+      <c r="C63" s="136"/>
       <c r="D63" s="40" t="s">
         <v>832</v>
       </c>
@@ -14316,14 +14316,14 @@
       <c r="K63" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L63" s="161"/>
-      <c r="M63" s="206"/>
-      <c r="N63" s="125"/>
+      <c r="L63" s="200"/>
+      <c r="M63" s="185"/>
+      <c r="N63" s="130"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="157"/>
-      <c r="B64" s="153"/>
-      <c r="C64" s="153"/>
+      <c r="A64" s="138"/>
+      <c r="B64" s="136"/>
+      <c r="C64" s="136"/>
       <c r="D64" s="40" t="s">
         <v>833</v>
       </c>
@@ -14348,14 +14348,14 @@
       <c r="K64" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L64" s="161"/>
-      <c r="M64" s="206"/>
-      <c r="N64" s="125"/>
+      <c r="L64" s="200"/>
+      <c r="M64" s="185"/>
+      <c r="N64" s="130"/>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="157"/>
-      <c r="B65" s="153"/>
-      <c r="C65" s="153"/>
+      <c r="A65" s="138"/>
+      <c r="B65" s="136"/>
+      <c r="C65" s="136"/>
       <c r="D65" s="40" t="s">
         <v>834</v>
       </c>
@@ -14380,14 +14380,14 @@
       <c r="K65" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L65" s="161"/>
-      <c r="M65" s="206"/>
-      <c r="N65" s="125"/>
+      <c r="L65" s="200"/>
+      <c r="M65" s="185"/>
+      <c r="N65" s="130"/>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="157"/>
-      <c r="B66" s="153"/>
-      <c r="C66" s="153"/>
+      <c r="A66" s="138"/>
+      <c r="B66" s="136"/>
+      <c r="C66" s="136"/>
       <c r="D66" s="40" t="s">
         <v>835</v>
       </c>
@@ -14412,14 +14412,14 @@
       <c r="K66" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L66" s="161"/>
-      <c r="M66" s="206"/>
-      <c r="N66" s="125"/>
+      <c r="L66" s="200"/>
+      <c r="M66" s="185"/>
+      <c r="N66" s="130"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="157"/>
-      <c r="B67" s="153"/>
-      <c r="C67" s="153"/>
+      <c r="A67" s="138"/>
+      <c r="B67" s="136"/>
+      <c r="C67" s="136"/>
       <c r="D67" s="40" t="s">
         <v>836</v>
       </c>
@@ -14444,14 +14444,14 @@
       <c r="K67" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L67" s="161"/>
-      <c r="M67" s="206"/>
-      <c r="N67" s="125"/>
+      <c r="L67" s="200"/>
+      <c r="M67" s="185"/>
+      <c r="N67" s="130"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="157"/>
-      <c r="B68" s="153"/>
-      <c r="C68" s="153"/>
+      <c r="A68" s="138"/>
+      <c r="B68" s="136"/>
+      <c r="C68" s="136"/>
       <c r="D68" s="40" t="s">
         <v>837</v>
       </c>
@@ -14476,14 +14476,14 @@
       <c r="K68" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L68" s="161"/>
-      <c r="M68" s="206"/>
-      <c r="N68" s="125"/>
+      <c r="L68" s="200"/>
+      <c r="M68" s="185"/>
+      <c r="N68" s="130"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="157"/>
-      <c r="B69" s="153"/>
-      <c r="C69" s="154"/>
+      <c r="A69" s="138"/>
+      <c r="B69" s="136"/>
+      <c r="C69" s="137"/>
       <c r="D69" s="41" t="s">
         <v>838</v>
       </c>
@@ -14509,13 +14509,13 @@
         <v>49</v>
       </c>
       <c r="L69" s="201"/>
-      <c r="M69" s="192"/>
-      <c r="N69" s="126"/>
+      <c r="M69" s="186"/>
+      <c r="N69" s="131"/>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="157"/>
-      <c r="B70" s="153"/>
-      <c r="C70" s="152" t="s">
+      <c r="A70" s="138"/>
+      <c r="B70" s="136"/>
+      <c r="C70" s="139" t="s">
         <v>255</v>
       </c>
       <c r="D70" s="42" t="s">
@@ -14542,20 +14542,20 @@
       <c r="K70" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L70" s="158">
+      <c r="L70" s="122">
         <v>41437</v>
       </c>
-      <c r="M70" s="149" t="s">
+      <c r="M70" s="125" t="s">
         <v>632</v>
       </c>
-      <c r="N70" s="124" t="s">
+      <c r="N70" s="129" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="157"/>
-      <c r="B71" s="153"/>
-      <c r="C71" s="153"/>
+      <c r="A71" s="138"/>
+      <c r="B71" s="136"/>
+      <c r="C71" s="136"/>
       <c r="D71" s="41" t="s">
         <v>848</v>
       </c>
@@ -14580,14 +14580,14 @@
       <c r="K71" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="L71" s="160"/>
-      <c r="M71" s="151"/>
-      <c r="N71" s="126"/>
+      <c r="L71" s="124"/>
+      <c r="M71" s="127"/>
+      <c r="N71" s="131"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="157"/>
-      <c r="B72" s="153"/>
-      <c r="C72" s="153"/>
+      <c r="A72" s="138"/>
+      <c r="B72" s="136"/>
+      <c r="C72" s="136"/>
       <c r="D72" s="42" t="s">
         <v>855</v>
       </c>
@@ -14612,20 +14612,20 @@
       <c r="K72" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L72" s="158">
+      <c r="L72" s="122">
         <v>39920</v>
       </c>
-      <c r="M72" s="149" t="s">
+      <c r="M72" s="125" t="s">
         <v>645</v>
       </c>
-      <c r="N72" s="124" t="s">
+      <c r="N72" s="129" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="157"/>
-      <c r="B73" s="153"/>
-      <c r="C73" s="153"/>
+      <c r="A73" s="138"/>
+      <c r="B73" s="136"/>
+      <c r="C73" s="136"/>
       <c r="D73" s="40" t="s">
         <v>855</v>
       </c>
@@ -14650,14 +14650,14 @@
       <c r="K73" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L73" s="159"/>
-      <c r="M73" s="150"/>
-      <c r="N73" s="125"/>
+      <c r="L73" s="123"/>
+      <c r="M73" s="126"/>
+      <c r="N73" s="130"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="157"/>
-      <c r="B74" s="153"/>
-      <c r="C74" s="153"/>
+      <c r="A74" s="138"/>
+      <c r="B74" s="136"/>
+      <c r="C74" s="136"/>
       <c r="D74" s="40" t="s">
         <v>856</v>
       </c>
@@ -14682,14 +14682,14 @@
       <c r="K74" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L74" s="159"/>
-      <c r="M74" s="150"/>
-      <c r="N74" s="125"/>
+      <c r="L74" s="123"/>
+      <c r="M74" s="126"/>
+      <c r="N74" s="130"/>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="157"/>
-      <c r="B75" s="154"/>
-      <c r="C75" s="154"/>
+      <c r="A75" s="138"/>
+      <c r="B75" s="137"/>
+      <c r="C75" s="137"/>
       <c r="D75" s="41" t="s">
         <v>856</v>
       </c>
@@ -14714,16 +14714,16 @@
       <c r="K75" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="L75" s="160"/>
-      <c r="M75" s="151"/>
-      <c r="N75" s="126"/>
+      <c r="L75" s="124"/>
+      <c r="M75" s="127"/>
+      <c r="N75" s="131"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="157"/>
-      <c r="B76" s="152" t="s">
+      <c r="A76" s="138"/>
+      <c r="B76" s="139" t="s">
         <v>932</v>
       </c>
-      <c r="C76" s="152" t="s">
+      <c r="C76" s="139" t="s">
         <v>933</v>
       </c>
       <c r="D76" s="35" t="s">
@@ -14750,20 +14750,20 @@
       <c r="K76" s="32" t="s">
         <v>484</v>
       </c>
-      <c r="L76" s="158">
+      <c r="L76" s="122">
         <v>43787</v>
       </c>
-      <c r="M76" s="149" t="s">
+      <c r="M76" s="125" t="s">
         <v>705</v>
       </c>
-      <c r="N76" s="124" t="s">
+      <c r="N76" s="129" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="157"/>
-      <c r="B77" s="153"/>
-      <c r="C77" s="153"/>
+      <c r="A77" s="138"/>
+      <c r="B77" s="136"/>
+      <c r="C77" s="136"/>
       <c r="D77" s="35" t="s">
         <v>929</v>
       </c>
@@ -14788,14 +14788,14 @@
       <c r="K77" s="26" t="s">
         <v>484</v>
       </c>
-      <c r="L77" s="159"/>
-      <c r="M77" s="150"/>
-      <c r="N77" s="125"/>
+      <c r="L77" s="123"/>
+      <c r="M77" s="126"/>
+      <c r="N77" s="130"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="157"/>
-      <c r="B78" s="153"/>
-      <c r="C78" s="153"/>
+      <c r="A78" s="138"/>
+      <c r="B78" s="136"/>
+      <c r="C78" s="136"/>
       <c r="D78" s="35" t="s">
         <v>700</v>
       </c>
@@ -14820,14 +14820,14 @@
       <c r="K78" s="26" t="s">
         <v>484</v>
       </c>
-      <c r="L78" s="159"/>
-      <c r="M78" s="150"/>
-      <c r="N78" s="125"/>
+      <c r="L78" s="123"/>
+      <c r="M78" s="126"/>
+      <c r="N78" s="130"/>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="157"/>
-      <c r="B79" s="154"/>
-      <c r="C79" s="154"/>
+      <c r="A79" s="138"/>
+      <c r="B79" s="137"/>
+      <c r="C79" s="137"/>
       <c r="D79" s="35" t="s">
         <v>701</v>
       </c>
@@ -14852,18 +14852,18 @@
       <c r="K79" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="L79" s="160"/>
-      <c r="M79" s="151"/>
-      <c r="N79" s="126"/>
+      <c r="L79" s="124"/>
+      <c r="M79" s="127"/>
+      <c r="N79" s="131"/>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="180" t="s">
+      <c r="A80" s="187" t="s">
+        <v>260</v>
+      </c>
+      <c r="B80" s="157" t="s">
         <v>259</v>
       </c>
-      <c r="B80" s="136" t="s">
-        <v>260</v>
-      </c>
-      <c r="C80" s="136" t="s">
+      <c r="C80" s="157" t="s">
         <v>261</v>
       </c>
       <c r="D80" s="68" t="s">
@@ -14890,20 +14890,20 @@
       <c r="K80" s="33" t="s">
         <v>861</v>
       </c>
-      <c r="L80" s="158">
+      <c r="L80" s="122">
         <v>42027</v>
       </c>
-      <c r="M80" s="149" t="s">
+      <c r="M80" s="125" t="s">
         <v>859</v>
       </c>
-      <c r="N80" s="124" t="s">
+      <c r="N80" s="129" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="180"/>
-      <c r="B81" s="138"/>
-      <c r="C81" s="138"/>
+      <c r="A81" s="187"/>
+      <c r="B81" s="159"/>
+      <c r="C81" s="159"/>
       <c r="D81" s="72" t="s">
         <v>865</v>
       </c>
@@ -14928,18 +14928,18 @@
       <c r="K81" s="30" t="s">
         <v>861</v>
       </c>
-      <c r="L81" s="160"/>
-      <c r="M81" s="151"/>
-      <c r="N81" s="126"/>
+      <c r="L81" s="124"/>
+      <c r="M81" s="127"/>
+      <c r="N81" s="131"/>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="193" t="s">
+      <c r="A82" s="173" t="s">
         <v>594</v>
       </c>
-      <c r="B82" s="130" t="s">
+      <c r="B82" s="151" t="s">
         <v>870</v>
       </c>
-      <c r="C82" s="131"/>
+      <c r="C82" s="152"/>
       <c r="D82" s="42" t="s">
         <v>875</v>
       </c>
@@ -14962,20 +14962,20 @@
         <v>50</v>
       </c>
       <c r="K82" s="113"/>
-      <c r="L82" s="158">
+      <c r="L82" s="122">
         <v>44414</v>
       </c>
-      <c r="M82" s="149" t="s">
+      <c r="M82" s="125" t="s">
         <v>885</v>
       </c>
-      <c r="N82" s="196" t="s">
+      <c r="N82" s="205" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="193"/>
-      <c r="B83" s="132"/>
-      <c r="C83" s="133"/>
+      <c r="A83" s="173"/>
+      <c r="B83" s="153"/>
+      <c r="C83" s="154"/>
       <c r="D83" s="40" t="s">
         <v>876</v>
       </c>
@@ -14998,14 +14998,14 @@
         <v>50</v>
       </c>
       <c r="K83" s="114"/>
-      <c r="L83" s="159"/>
-      <c r="M83" s="150"/>
-      <c r="N83" s="197"/>
+      <c r="L83" s="123"/>
+      <c r="M83" s="126"/>
+      <c r="N83" s="206"/>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="193"/>
-      <c r="B84" s="132"/>
-      <c r="C84" s="133"/>
+      <c r="A84" s="173"/>
+      <c r="B84" s="153"/>
+      <c r="C84" s="154"/>
       <c r="D84" s="40" t="s">
         <v>877</v>
       </c>
@@ -15028,14 +15028,14 @@
         <v>50</v>
       </c>
       <c r="K84" s="114"/>
-      <c r="L84" s="159"/>
-      <c r="M84" s="150"/>
-      <c r="N84" s="197"/>
+      <c r="L84" s="123"/>
+      <c r="M84" s="126"/>
+      <c r="N84" s="206"/>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="193"/>
-      <c r="B85" s="132"/>
-      <c r="C85" s="133"/>
+      <c r="A85" s="173"/>
+      <c r="B85" s="153"/>
+      <c r="C85" s="154"/>
       <c r="D85" s="41" t="s">
         <v>878</v>
       </c>
@@ -15058,14 +15058,14 @@
         <v>50</v>
       </c>
       <c r="K85" s="115"/>
-      <c r="L85" s="160"/>
-      <c r="M85" s="151"/>
-      <c r="N85" s="198"/>
+      <c r="L85" s="124"/>
+      <c r="M85" s="127"/>
+      <c r="N85" s="207"/>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="193"/>
-      <c r="B86" s="132"/>
-      <c r="C86" s="133"/>
+      <c r="A86" s="173"/>
+      <c r="B86" s="153"/>
+      <c r="C86" s="154"/>
       <c r="D86" s="68" t="s">
         <v>893</v>
       </c>
@@ -15090,20 +15090,20 @@
       <c r="K86" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="L86" s="158">
+      <c r="L86" s="122">
         <v>43787</v>
       </c>
-      <c r="M86" s="149" t="s">
+      <c r="M86" s="125" t="s">
         <v>705</v>
       </c>
-      <c r="N86" s="124" t="s">
+      <c r="N86" s="129" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="193"/>
-      <c r="B87" s="132"/>
-      <c r="C87" s="133"/>
+      <c r="A87" s="173"/>
+      <c r="B87" s="153"/>
+      <c r="C87" s="154"/>
       <c r="D87" s="70" t="s">
         <v>893</v>
       </c>
@@ -15128,14 +15128,14 @@
       <c r="K87" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L87" s="159"/>
-      <c r="M87" s="150"/>
-      <c r="N87" s="125"/>
+      <c r="L87" s="123"/>
+      <c r="M87" s="126"/>
+      <c r="N87" s="130"/>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="193"/>
-      <c r="B88" s="132"/>
-      <c r="C88" s="133"/>
+      <c r="A88" s="173"/>
+      <c r="B88" s="153"/>
+      <c r="C88" s="154"/>
       <c r="D88" s="70" t="s">
         <v>894</v>
       </c>
@@ -15160,14 +15160,14 @@
       <c r="K88" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L88" s="159"/>
-      <c r="M88" s="150"/>
-      <c r="N88" s="125"/>
+      <c r="L88" s="123"/>
+      <c r="M88" s="126"/>
+      <c r="N88" s="130"/>
     </row>
     <row r="89" spans="1:14">
-      <c r="A89" s="193"/>
-      <c r="B89" s="132"/>
-      <c r="C89" s="133"/>
+      <c r="A89" s="173"/>
+      <c r="B89" s="153"/>
+      <c r="C89" s="154"/>
       <c r="D89" s="70" t="s">
         <v>894</v>
       </c>
@@ -15192,14 +15192,14 @@
       <c r="K89" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L89" s="159"/>
-      <c r="M89" s="150"/>
-      <c r="N89" s="125"/>
+      <c r="L89" s="123"/>
+      <c r="M89" s="126"/>
+      <c r="N89" s="130"/>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="193"/>
-      <c r="B90" s="132"/>
-      <c r="C90" s="133"/>
+      <c r="A90" s="173"/>
+      <c r="B90" s="153"/>
+      <c r="C90" s="154"/>
       <c r="D90" s="70" t="s">
         <v>895</v>
       </c>
@@ -15224,14 +15224,14 @@
       <c r="K90" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L90" s="159"/>
-      <c r="M90" s="150"/>
-      <c r="N90" s="125"/>
+      <c r="L90" s="123"/>
+      <c r="M90" s="126"/>
+      <c r="N90" s="130"/>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="193"/>
-      <c r="B91" s="134"/>
-      <c r="C91" s="135"/>
+      <c r="A91" s="173"/>
+      <c r="B91" s="155"/>
+      <c r="C91" s="156"/>
       <c r="D91" s="72" t="s">
         <v>896</v>
       </c>
@@ -15256,16 +15256,16 @@
       <c r="K91" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="L91" s="160"/>
-      <c r="M91" s="151"/>
-      <c r="N91" s="126"/>
+      <c r="L91" s="124"/>
+      <c r="M91" s="127"/>
+      <c r="N91" s="131"/>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="193"/>
-      <c r="B92" s="130" t="s">
+      <c r="A92" s="173"/>
+      <c r="B92" s="151" t="s">
         <v>310</v>
       </c>
-      <c r="C92" s="131"/>
+      <c r="C92" s="152"/>
       <c r="D92" s="42" t="s">
         <v>904</v>
       </c>
@@ -15290,20 +15290,20 @@
       <c r="K92" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="L92" s="158">
+      <c r="L92" s="122">
         <v>44008</v>
       </c>
-      <c r="M92" s="149" t="s">
+      <c r="M92" s="125" t="s">
         <v>716</v>
       </c>
-      <c r="N92" s="124" t="s">
+      <c r="N92" s="129" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="193"/>
-      <c r="B93" s="132"/>
-      <c r="C93" s="133"/>
+      <c r="A93" s="173"/>
+      <c r="B93" s="153"/>
+      <c r="C93" s="154"/>
       <c r="D93" s="41" t="s">
         <v>905</v>
       </c>
@@ -15328,14 +15328,14 @@
       <c r="K93" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="L93" s="160"/>
-      <c r="M93" s="151"/>
-      <c r="N93" s="126"/>
+      <c r="L93" s="124"/>
+      <c r="M93" s="127"/>
+      <c r="N93" s="131"/>
     </row>
     <row r="94" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A94" s="193"/>
-      <c r="B94" s="132"/>
-      <c r="C94" s="133"/>
+      <c r="A94" s="173"/>
+      <c r="B94" s="153"/>
+      <c r="C94" s="154"/>
       <c r="D94" s="68" t="s">
         <v>914</v>
       </c>
@@ -15360,20 +15360,20 @@
       <c r="K94" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="L94" s="158">
+      <c r="L94" s="122">
         <v>43696</v>
       </c>
-      <c r="M94" s="149" t="s">
+      <c r="M94" s="125" t="s">
         <v>908</v>
       </c>
-      <c r="N94" s="121" t="s">
+      <c r="N94" s="145" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="193"/>
-      <c r="B95" s="132"/>
-      <c r="C95" s="133"/>
+      <c r="A95" s="173"/>
+      <c r="B95" s="153"/>
+      <c r="C95" s="154"/>
       <c r="D95" s="70" t="s">
         <v>915</v>
       </c>
@@ -15398,14 +15398,14 @@
       <c r="K95" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="L95" s="159"/>
-      <c r="M95" s="150"/>
-      <c r="N95" s="122"/>
+      <c r="L95" s="123"/>
+      <c r="M95" s="126"/>
+      <c r="N95" s="146"/>
     </row>
     <row r="96" spans="1:14">
-      <c r="A96" s="193"/>
-      <c r="B96" s="132"/>
-      <c r="C96" s="133"/>
+      <c r="A96" s="173"/>
+      <c r="B96" s="153"/>
+      <c r="C96" s="154"/>
       <c r="D96" s="70" t="s">
         <v>916</v>
       </c>
@@ -15430,14 +15430,14 @@
       <c r="K96" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="L96" s="159"/>
-      <c r="M96" s="150"/>
-      <c r="N96" s="122"/>
+      <c r="L96" s="123"/>
+      <c r="M96" s="126"/>
+      <c r="N96" s="146"/>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="193"/>
-      <c r="B97" s="132"/>
-      <c r="C97" s="133"/>
+      <c r="A97" s="173"/>
+      <c r="B97" s="153"/>
+      <c r="C97" s="154"/>
       <c r="D97" s="70" t="s">
         <v>917</v>
       </c>
@@ -15462,14 +15462,14 @@
       <c r="K97" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="L97" s="159"/>
-      <c r="M97" s="150"/>
-      <c r="N97" s="122"/>
+      <c r="L97" s="123"/>
+      <c r="M97" s="126"/>
+      <c r="N97" s="146"/>
     </row>
     <row r="98" spans="1:14">
-      <c r="A98" s="194"/>
-      <c r="B98" s="134"/>
-      <c r="C98" s="135"/>
+      <c r="A98" s="174"/>
+      <c r="B98" s="155"/>
+      <c r="C98" s="156"/>
       <c r="D98" s="72" t="s">
         <v>918</v>
       </c>
@@ -15494,9 +15494,9 @@
       <c r="K98" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="L98" s="160"/>
-      <c r="M98" s="151"/>
-      <c r="N98" s="123"/>
+      <c r="L98" s="124"/>
+      <c r="M98" s="127"/>
+      <c r="N98" s="147"/>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="16" t="s">
@@ -15505,10 +15505,10 @@
       <c r="B100" s="17" t="s">
         <v>1030</v>
       </c>
-      <c r="D100" s="202"/>
-      <c r="E100" s="202"/>
-      <c r="F100" s="202"/>
-      <c r="G100" s="202"/>
+      <c r="D100" s="204"/>
+      <c r="E100" s="204"/>
+      <c r="F100" s="204"/>
+      <c r="G100" s="204"/>
     </row>
     <row r="101" spans="1:14">
       <c r="B101" s="18"/>
@@ -15517,45 +15517,33 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="L92:L93"/>
-    <mergeCell ref="L94:L98"/>
-    <mergeCell ref="L60:L69"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="L72:L75"/>
-    <mergeCell ref="L76:L79"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="L38:L47"/>
-    <mergeCell ref="L48:L51"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="L56:L59"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="L26:L33"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B22"/>
-    <mergeCell ref="A82:A98"/>
-    <mergeCell ref="B23:B75"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C56:C69"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="A3:A79"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="M60:M69"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="M72:M75"/>
+    <mergeCell ref="N60:N69"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="N72:N75"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="N86:N91"/>
+    <mergeCell ref="N92:N93"/>
+    <mergeCell ref="N94:N98"/>
+    <mergeCell ref="N76:N79"/>
+    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="M56:M59"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="N56:N59"/>
+    <mergeCell ref="M38:M47"/>
+    <mergeCell ref="N38:N47"/>
+    <mergeCell ref="M48:M51"/>
+    <mergeCell ref="N48:N51"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M26:M33"/>
+    <mergeCell ref="N26:N33"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="N34:N37"/>
     <mergeCell ref="D100:G100"/>
     <mergeCell ref="B76:B79"/>
     <mergeCell ref="C76:C79"/>
@@ -15568,44 +15556,56 @@
     <mergeCell ref="M94:M98"/>
     <mergeCell ref="L82:L85"/>
     <mergeCell ref="L86:L91"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="A82:A98"/>
+    <mergeCell ref="B23:B75"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C69"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="A3:A79"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="C24:C51"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B22"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="N5:N8"/>
     <mergeCell ref="N9:N12"/>
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="N17:N19"/>
     <mergeCell ref="N20:N21"/>
-    <mergeCell ref="C24:C51"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L26:L33"/>
+    <mergeCell ref="L34:L37"/>
     <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M26:M33"/>
-    <mergeCell ref="N26:N33"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="M38:M47"/>
-    <mergeCell ref="N38:N47"/>
-    <mergeCell ref="M48:M51"/>
-    <mergeCell ref="N48:N51"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="M56:M59"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="N56:N59"/>
-    <mergeCell ref="N82:N85"/>
-    <mergeCell ref="N86:N91"/>
-    <mergeCell ref="N92:N93"/>
-    <mergeCell ref="N94:N98"/>
-    <mergeCell ref="N76:N79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="N80:N81"/>
-    <mergeCell ref="M60:M69"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="M72:M75"/>
-    <mergeCell ref="N60:N69"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="N72:N75"/>
+    <mergeCell ref="L38:L47"/>
+    <mergeCell ref="L48:L51"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L56:L59"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="L94:L98"/>
+    <mergeCell ref="L60:L69"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="L72:L75"/>
+    <mergeCell ref="L76:L79"/>
+    <mergeCell ref="L80:L81"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
